--- a/uv_fluxes.xlsx
+++ b/uv_fluxes.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katiemel/Desktop/NASA_2018/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B444ADC-E0EF-D84D-B04B-94D9F09423C6}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{173F670D-4E64-7A4C-99DD-6456939441F0}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="160" yWindow="460" windowWidth="25440" windowHeight="15000" xr2:uid="{942B6D15-DAF8-BF42-97C8-ECF2BB5E6A39}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1755" uniqueCount="156">
   <si>
     <t>SiIII_flux</t>
   </si>
@@ -124,13 +124,382 @@
   </si>
   <si>
     <t>temp</t>
+  </si>
+  <si>
+    <t>star</t>
+  </si>
+  <si>
+    <t>GJ176</t>
+  </si>
+  <si>
+    <t>GJ667C</t>
+  </si>
+  <si>
+    <t>GJ581</t>
+  </si>
+  <si>
+    <t>GJ1214</t>
+  </si>
+  <si>
+    <t>GJ832</t>
+  </si>
+  <si>
+    <t>GJ876</t>
+  </si>
+  <si>
+    <t>GJ436</t>
+  </si>
+  <si>
+    <t>GJ628</t>
+  </si>
+  <si>
+    <t>GJ887</t>
+  </si>
+  <si>
+    <t>GJ1061</t>
+  </si>
+  <si>
+    <t>HD173739</t>
+  </si>
+  <si>
+    <t>GSC8056-0482</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>2MASSJ02543316-5108313</t>
+  </si>
+  <si>
+    <t>2MASSJ02001277-0840516</t>
+  </si>
+  <si>
+    <t>G75-55</t>
+  </si>
+  <si>
+    <t>2MASSJ22025453-6440441</t>
+  </si>
+  <si>
+    <t>2MASSJ00240899-6211042</t>
+  </si>
+  <si>
+    <t>2MASSJ01521830-5950168</t>
+  </si>
+  <si>
+    <t>2MASSJ03315564-4359135</t>
+  </si>
+  <si>
+    <t>2MASSJ23261069-7323498</t>
+  </si>
+  <si>
+    <t>2MASSJ23285763-6802338</t>
+  </si>
+  <si>
+    <t>2MASSJ00393579-3816584</t>
+  </si>
+  <si>
+    <t>GJ173</t>
+  </si>
+  <si>
+    <t>GJ3290</t>
+  </si>
+  <si>
+    <t>LP415-1619</t>
+  </si>
+  <si>
+    <t>LP5-282</t>
+  </si>
+  <si>
+    <t>2MASSJ04223953+1816097</t>
+  </si>
+  <si>
+    <t>2MASSJ04184702+1321585</t>
+  </si>
+  <si>
+    <t>TYC1265-1118-1</t>
+  </si>
+  <si>
+    <t>2MASSJ02125819-5851182</t>
+  </si>
+  <si>
+    <t>2MASSJ22463471-7353504</t>
+  </si>
+  <si>
+    <t>GJ 3997</t>
+  </si>
+  <si>
+    <t>GJ4334</t>
+  </si>
+  <si>
+    <t>GJ49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GJ871.1A </t>
+  </si>
+  <si>
+    <t>LP247-13</t>
+  </si>
+  <si>
+    <t>G80-21</t>
+  </si>
+  <si>
+    <t>CD-571054</t>
+  </si>
+  <si>
+    <t>CD-352722</t>
+  </si>
+  <si>
+    <t>GJ410</t>
+  </si>
+  <si>
+    <t>LP55-41</t>
+  </si>
+  <si>
+    <t>G249-11</t>
+  </si>
+  <si>
+    <t>G111-72</t>
+  </si>
+  <si>
+    <t>GJ213</t>
+  </si>
+  <si>
+    <t>GJ4304</t>
+  </si>
+  <si>
+    <t>GJ821</t>
+  </si>
+  <si>
+    <t>GJ191</t>
+  </si>
+  <si>
+    <t>LHS26</t>
+  </si>
+  <si>
+    <t>LHS353</t>
+  </si>
+  <si>
+    <t>GJ754.1B</t>
+  </si>
+  <si>
+    <t>&lt;4.88e-16</t>
+  </si>
+  <si>
+    <t>&lt;5.96e-17</t>
+  </si>
+  <si>
+    <t>&lt;1.00e-17</t>
+  </si>
+  <si>
+    <t>&lt;5.27e-17</t>
+  </si>
+  <si>
+    <t>&lt;8.44e-17</t>
+  </si>
+  <si>
+    <t>&lt;1.77e-16</t>
+  </si>
+  <si>
+    <t>&lt;2.40e-16</t>
+  </si>
+  <si>
+    <t>&lt;2.35e-16</t>
+  </si>
+  <si>
+    <t>&lt;9.20e-17</t>
+  </si>
+  <si>
+    <t>&lt;5.25e-17</t>
+  </si>
+  <si>
+    <t>&lt;1.92e-17</t>
+  </si>
+  <si>
+    <t>&lt;1.21e-16</t>
+  </si>
+  <si>
+    <t>&lt;-1.92e-17</t>
+  </si>
+  <si>
+    <t>&lt;1.83e-16</t>
+  </si>
+  <si>
+    <t>&lt;1.21e-17</t>
+  </si>
+  <si>
+    <t>GJ388</t>
+  </si>
+  <si>
+    <t>GJ803</t>
+  </si>
+  <si>
+    <t>GJ873</t>
+  </si>
+  <si>
+    <t>GJ551</t>
+  </si>
+  <si>
+    <t>GJ1132</t>
+  </si>
+  <si>
+    <t>GJ3470</t>
+  </si>
+  <si>
+    <t>K2-25</t>
+  </si>
+  <si>
+    <t>GJ1243</t>
+  </si>
+  <si>
+    <t>TWA13A</t>
+  </si>
+  <si>
+    <t>TWA13B</t>
+  </si>
+  <si>
+    <t>TWA7</t>
+  </si>
+  <si>
+    <t>LHS2065</t>
+  </si>
+  <si>
+    <t>LHS3003</t>
+  </si>
+  <si>
+    <t>GJ285</t>
+  </si>
+  <si>
+    <t>GJ752B</t>
+  </si>
+  <si>
+    <t>GJ644C</t>
+  </si>
+  <si>
+    <t>TRAPPIST-1</t>
+  </si>
+  <si>
+    <t>GJ3053</t>
+  </si>
+  <si>
+    <t>GJ676A</t>
+  </si>
+  <si>
+    <t>GJ15A</t>
+  </si>
+  <si>
+    <t>GJ649</t>
+  </si>
+  <si>
+    <t>GJ163</t>
+  </si>
+  <si>
+    <t>GJ849</t>
+  </si>
+  <si>
+    <t>GJ674</t>
+  </si>
+  <si>
+    <t>GJ699</t>
+  </si>
+  <si>
+    <t>L980-5</t>
+  </si>
+  <si>
+    <t>LP756-18</t>
+  </si>
+  <si>
+    <t>LHS2686</t>
+  </si>
+  <si>
+    <t>GJ729</t>
+  </si>
+  <si>
+    <t>K2-3</t>
+  </si>
+  <si>
+    <t>Ross1044</t>
+  </si>
+  <si>
+    <t>Ross825</t>
+  </si>
+  <si>
+    <t>GJ273</t>
+  </si>
+  <si>
+    <t>GJ860A</t>
+  </si>
+  <si>
+    <t>GJ205</t>
+  </si>
+  <si>
+    <t>GJ588</t>
+  </si>
+  <si>
+    <t>GJ338A</t>
+  </si>
+  <si>
+    <t>GJ644A</t>
+  </si>
+  <si>
+    <t>GJ411</t>
+  </si>
+  <si>
+    <t>2MASSJ04483062+1623187</t>
+  </si>
+  <si>
+    <t>2MASSJ04235911+1643178</t>
+  </si>
+  <si>
+    <t>2MASSJ04251456+1858250</t>
+  </si>
+  <si>
+    <t>2MASSJ04202761+1853499</t>
+  </si>
+  <si>
+    <t>2MASSJ04172811+1454038</t>
+  </si>
+  <si>
+    <t>2MASSJ02564122+3522346</t>
+  </si>
+  <si>
+    <t>2MASSJ03553690+2118482</t>
+  </si>
+  <si>
+    <t>2MASSJ03555715+1825564</t>
+  </si>
+  <si>
+    <t>2MASSJ03581434+1237408</t>
+  </si>
+  <si>
+    <t>2MASSJ04004493+1354227</t>
+  </si>
+  <si>
+    <t>2MASSJ04062060+1901391</t>
+  </si>
+  <si>
+    <t>2MASSJ04183382+1821529</t>
+  </si>
+  <si>
+    <t>2MASSJ04262170+1800009</t>
+  </si>
+  <si>
+    <t>2MASSJ04290015+1620467</t>
+  </si>
+  <si>
+    <t>2MASSJ04214955+1929086</t>
+  </si>
+  <si>
+    <t>2MASSJ04110642+1247481</t>
+  </si>
+  <si>
+    <t>2MASSJ04254182+1900477</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -172,6 +541,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -193,7 +580,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -204,6 +591,9 @@
     <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -518,15 +908,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF0202CB-48C7-494E-B0A3-04A5E53E516A}">
-  <dimension ref="A1:V17"/>
+  <dimension ref="A1:X112"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="X98" sqref="X98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="23" max="23" width="25.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -593,8 +986,11 @@
       <c r="V1" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W1" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
@@ -638,7 +1034,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -659,7 +1055,7 @@
       <c r="R3" s="4"/>
       <c r="S3" s="4"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -680,7 +1076,7 @@
       <c r="R4" s="4"/>
       <c r="S4" s="4"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -701,7 +1097,7 @@
       <c r="R5" s="4"/>
       <c r="S5" s="4"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>2.1499999999999998E-15</v>
       </c>
@@ -768,8 +1164,12 @@
       <c r="V6" s="3">
         <v>3680</v>
       </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="X6" s="4"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5.0699999999999996E-16</v>
       </c>
@@ -836,8 +1236,12 @@
       <c r="V7" s="3">
         <v>3450</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="X7" s="4"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>2.9399999999999999E-16</v>
       </c>
@@ -904,8 +1308,12 @@
       <c r="V8" s="3">
         <v>3500</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="X8" s="4"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8.0500000000000002E-17</v>
       </c>
@@ -972,8 +1380,12 @@
       <c r="V9" s="3">
         <v>2820</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="X9" s="4"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>2.55E-15</v>
       </c>
@@ -1040,8 +1452,12 @@
       <c r="V10" s="3">
         <v>3590</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="X10" s="4"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>8.1099999999999996E-15</v>
       </c>
@@ -1108,8 +1524,12 @@
       <c r="V11" s="3">
         <v>3130</v>
       </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="X11" s="4"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>5.1499999999999999E-16</v>
       </c>
@@ -1176,64 +1596,68 @@
       <c r="V12" s="3">
         <v>3420</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>0</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
+      <c r="W12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="X12" s="4"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>46</v>
+      </c>
+      <c r="J13" t="s">
+        <v>46</v>
+      </c>
+      <c r="K13" t="s">
+        <v>46</v>
+      </c>
+      <c r="L13" t="s">
+        <v>46</v>
+      </c>
+      <c r="M13" t="s">
+        <v>46</v>
+      </c>
+      <c r="N13" t="s">
+        <v>46</v>
+      </c>
+      <c r="O13" t="s">
+        <v>46</v>
+      </c>
+      <c r="P13" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>46</v>
+      </c>
+      <c r="R13" t="s">
+        <v>46</v>
+      </c>
+      <c r="S13" t="s">
+        <v>46</v>
       </c>
       <c r="T13" s="4">
         <v>4.3099999999999996</v>
@@ -1244,64 +1668,68 @@
       <c r="V13" s="4">
         <v>3410</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>0</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-      <c r="S14">
-        <v>0</v>
+      <c r="W13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="X13" s="4"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>46</v>
+      </c>
+      <c r="J14" t="s">
+        <v>46</v>
+      </c>
+      <c r="K14" t="s">
+        <v>46</v>
+      </c>
+      <c r="L14" t="s">
+        <v>46</v>
+      </c>
+      <c r="M14" t="s">
+        <v>46</v>
+      </c>
+      <c r="N14" t="s">
+        <v>46</v>
+      </c>
+      <c r="O14" t="s">
+        <v>46</v>
+      </c>
+      <c r="P14" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>46</v>
+      </c>
+      <c r="R14" t="s">
+        <v>46</v>
+      </c>
+      <c r="S14" t="s">
+        <v>46</v>
       </c>
       <c r="T14" s="4">
         <v>3.29</v>
@@ -1312,64 +1740,68 @@
       <c r="V14" s="4">
         <v>3720</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>0</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-      <c r="S15">
-        <v>0</v>
+      <c r="W14" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="X14" s="4"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>46</v>
+      </c>
+      <c r="J15" t="s">
+        <v>46</v>
+      </c>
+      <c r="K15" t="s">
+        <v>46</v>
+      </c>
+      <c r="L15" t="s">
+        <v>46</v>
+      </c>
+      <c r="M15" t="s">
+        <v>46</v>
+      </c>
+      <c r="N15" t="s">
+        <v>46</v>
+      </c>
+      <c r="O15" t="s">
+        <v>46</v>
+      </c>
+      <c r="P15" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>46</v>
+      </c>
+      <c r="R15" t="s">
+        <v>46</v>
+      </c>
+      <c r="S15" t="s">
+        <v>46</v>
       </c>
       <c r="T15" s="4">
         <v>3.67</v>
@@ -1380,64 +1812,68 @@
       <c r="V15" s="4">
         <v>2882</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>0</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-      <c r="S16">
-        <v>0</v>
+      <c r="W15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="X15" s="4"/>
+    </row>
+    <row r="16" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>46</v>
+      </c>
+      <c r="J16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L16" t="s">
+        <v>46</v>
+      </c>
+      <c r="M16" t="s">
+        <v>46</v>
+      </c>
+      <c r="N16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>46</v>
+      </c>
+      <c r="R16" t="s">
+        <v>46</v>
+      </c>
+      <c r="S16" t="s">
+        <v>46</v>
       </c>
       <c r="T16" s="4">
         <v>3.52</v>
@@ -1448,19 +1884,23 @@
       <c r="V16" s="4">
         <v>3520</v>
       </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="X16" s="4"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>1.24E-14</v>
       </c>
       <c r="B17" s="8">
         <v>2.1799999999999999E-16</v>
       </c>
-      <c r="C17" s="4">
-        <v>0</v>
-      </c>
-      <c r="D17" s="4">
-        <v>0</v>
+      <c r="C17" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" t="s">
+        <v>46</v>
       </c>
       <c r="E17" s="9">
         <v>9.1500000000000008E-16</v>
@@ -1474,11 +1914,11 @@
       <c r="H17" s="8">
         <v>2.7499999999999998E-16</v>
       </c>
-      <c r="I17" s="4">
-        <v>0</v>
-      </c>
-      <c r="J17" s="4">
-        <v>0</v>
+      <c r="I17" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="K17" s="8">
         <v>1.4999999999999999E-14</v>
@@ -1504,8 +1944,8 @@
       <c r="R17" s="8">
         <v>1.56E-16</v>
       </c>
-      <c r="S17" s="4">
-        <v>0</v>
+      <c r="S17" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="T17" s="4">
         <v>38.85</v>
@@ -1513,9 +1953,6845 @@
       <c r="U17" s="4">
         <v>0.92</v>
       </c>
-      <c r="V17">
+      <c r="V17" t="s">
+        <v>46</v>
+      </c>
+      <c r="W17" t="s">
+        <v>45</v>
+      </c>
+      <c r="X17" s="4"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A18" s="10">
+        <v>6.9600000000000003E-15</v>
+      </c>
+      <c r="B18" s="10">
+        <v>3.64E-16</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="11">
+        <v>1.08E-15</v>
+      </c>
+      <c r="F18" s="11">
+        <v>3.1700000000000002E-16</v>
+      </c>
+      <c r="G18" s="10">
+        <v>1.6799999999999998E-14</v>
+      </c>
+      <c r="H18" s="10">
+        <v>5.3000000000000003E-16</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K18" s="10">
+        <v>9.1399999999999994E-15</v>
+      </c>
+      <c r="L18" s="10">
+        <v>4.5000000000000002E-16</v>
+      </c>
+      <c r="M18" s="7">
+        <v>4.3E-14</v>
+      </c>
+      <c r="N18" s="7">
+        <v>2.6800000000000002E-15</v>
+      </c>
+      <c r="O18" s="7">
+        <v>2.5400000000000001E-14</v>
+      </c>
+      <c r="P18" s="7">
+        <v>9.9199999999999995E-16</v>
+      </c>
+      <c r="Q18" s="10">
+        <v>9.9900000000000002E-15</v>
+      </c>
+      <c r="R18" s="10">
+        <v>4.3800000000000002E-16</v>
+      </c>
+      <c r="S18" t="s">
+        <v>46</v>
+      </c>
+      <c r="T18" s="4">
+        <v>43.76</v>
+      </c>
+      <c r="U18" s="4">
+        <v>0.92</v>
+      </c>
+      <c r="V18" s="4">
+        <v>3250</v>
+      </c>
+      <c r="W18" t="s">
+        <v>47</v>
+      </c>
+      <c r="X18" s="4"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A19" s="10">
+        <v>8.6800000000000006E-15</v>
+      </c>
+      <c r="B19" s="10">
+        <v>2.4499999999999999E-16</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="11">
+        <v>1.1599999999999999E-15</v>
+      </c>
+      <c r="F19" s="11">
+        <v>2.2500000000000001E-16</v>
+      </c>
+      <c r="G19" s="10">
+        <v>2.2099999999999999E-14</v>
+      </c>
+      <c r="H19" s="10">
+        <v>4.6599999999999998E-16</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K19" s="10">
+        <v>1.62E-14</v>
+      </c>
+      <c r="L19" s="10">
+        <v>4.1799999999999999E-16</v>
+      </c>
+      <c r="M19" s="7">
+        <v>6.2099999999999995E-14</v>
+      </c>
+      <c r="N19" s="7">
+        <v>2.72E-15</v>
+      </c>
+      <c r="O19" s="7">
+        <v>5.2300000000000002E-14</v>
+      </c>
+      <c r="P19" s="7">
+        <v>1.53E-15</v>
+      </c>
+      <c r="Q19" s="10">
+        <v>9.3700000000000004E-15</v>
+      </c>
+      <c r="R19" s="10">
+        <v>3.1400000000000002E-16</v>
+      </c>
+      <c r="S19" t="s">
+        <v>46</v>
+      </c>
+      <c r="T19" s="4">
+        <v>36.93</v>
+      </c>
+      <c r="U19" s="4">
+        <v>0.92</v>
+      </c>
+      <c r="V19" s="4">
+        <v>3250</v>
+      </c>
+      <c r="W19" t="s">
+        <v>48</v>
+      </c>
+      <c r="X19" s="4"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="T20" s="4">
+        <v>23.9</v>
+      </c>
+      <c r="U20" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="V20" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="W20" t="s">
+        <v>49</v>
+      </c>
+      <c r="X20" s="4"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A21" s="10">
+        <v>1.11E-14</v>
+      </c>
+      <c r="B21" s="10">
+        <v>3.52E-16</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="11">
+        <v>1.56E-16</v>
+      </c>
+      <c r="F21" s="11">
+        <v>2.6500000000000002E-16</v>
+      </c>
+      <c r="G21" s="10">
+        <v>1.92E-14</v>
+      </c>
+      <c r="H21" s="10">
+        <v>5.3000000000000003E-16</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K21" s="10">
+        <v>1.3899999999999999E-14</v>
+      </c>
+      <c r="L21" s="10">
+        <v>5.0600000000000004E-16</v>
+      </c>
+      <c r="M21" s="7">
+        <v>2.4799999999999999E-14</v>
+      </c>
+      <c r="N21" s="7">
+        <v>1.36E-15</v>
+      </c>
+      <c r="O21" s="7">
+        <v>1.7999999999999999E-14</v>
+      </c>
+      <c r="P21" s="7">
+        <v>6.25E-16</v>
+      </c>
+      <c r="Q21" s="10">
+        <v>7.3599999999999997E-15</v>
+      </c>
+      <c r="R21" s="10">
+        <v>3.3599999999999999E-16</v>
+      </c>
+      <c r="S21" t="s">
+        <v>46</v>
+      </c>
+      <c r="T21" s="4">
+        <v>43.7</v>
+      </c>
+      <c r="U21" s="4">
+        <v>0.92</v>
+      </c>
+      <c r="V21" s="4">
+        <v>3250</v>
+      </c>
+      <c r="W21" t="s">
+        <v>50</v>
+      </c>
+      <c r="X21" s="4"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A22" s="10">
+        <v>1.02E-14</v>
+      </c>
+      <c r="B22" s="10">
+        <v>3.3899999999999999E-16</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="11">
+        <v>1.8500000000000001E-15</v>
+      </c>
+      <c r="F22" s="11">
+        <v>2.3500000000000002E-16</v>
+      </c>
+      <c r="G22" s="10">
+        <v>2.75E-14</v>
+      </c>
+      <c r="H22" s="10">
+        <v>5.8400000000000002E-16</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K22" s="10">
+        <v>1.7100000000000001E-14</v>
+      </c>
+      <c r="L22" s="10">
+        <v>4.1700000000000002E-16</v>
+      </c>
+      <c r="M22" s="7">
+        <v>5.0499999999999999E-14</v>
+      </c>
+      <c r="N22" s="7">
+        <v>1.8099999999999998E-15</v>
+      </c>
+      <c r="O22" s="7">
+        <v>4.2899999999999999E-14</v>
+      </c>
+      <c r="P22" s="7">
+        <v>1.2099999999999999E-15</v>
+      </c>
+      <c r="Q22" s="10">
+        <v>8.1699999999999998E-15</v>
+      </c>
+      <c r="R22" s="10">
+        <v>3.4400000000000002E-16</v>
+      </c>
+      <c r="S22" t="s">
+        <v>46</v>
+      </c>
+      <c r="T22" s="4">
+        <v>44.23</v>
+      </c>
+      <c r="U22" s="4">
+        <v>1.07</v>
+      </c>
+      <c r="V22" s="4">
+        <v>3820</v>
+      </c>
+      <c r="W22" t="s">
+        <v>51</v>
+      </c>
+      <c r="X22" s="4"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A23" s="10">
+        <v>1.17E-14</v>
+      </c>
+      <c r="B23" s="10">
+        <v>6.7500000000000002E-16</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" s="11">
+        <v>1.8500000000000001E-15</v>
+      </c>
+      <c r="F23" s="11">
+        <v>3.31E-16</v>
+      </c>
+      <c r="G23" s="10">
+        <v>2.0900000000000001E-14</v>
+      </c>
+      <c r="H23" s="10">
+        <v>8.0499999999999997E-16</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K23" s="10">
+        <v>1.7E-14</v>
+      </c>
+      <c r="L23" s="10">
+        <v>9.2600000000000006E-16</v>
+      </c>
+      <c r="M23" s="7">
+        <v>3.0699999999999998E-14</v>
+      </c>
+      <c r="N23" s="7">
+        <v>1.8099999999999998E-15</v>
+      </c>
+      <c r="O23" s="7">
+        <v>1.8600000000000001E-14</v>
+      </c>
+      <c r="P23" s="7">
+        <v>6.9300000000000002E-16</v>
+      </c>
+      <c r="Q23" s="10">
+        <v>7.9899999999999993E-15</v>
+      </c>
+      <c r="R23" s="10">
+        <v>4.4699999999999997E-16</v>
+      </c>
+      <c r="S23" t="s">
+        <v>46</v>
+      </c>
+      <c r="T23" s="4">
+        <v>39.76</v>
+      </c>
+      <c r="U23" s="4">
+        <v>0.92</v>
+      </c>
+      <c r="V23" s="4">
+        <v>3250</v>
+      </c>
+      <c r="W23" t="s">
+        <v>52</v>
+      </c>
+      <c r="X23" s="4"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A24" s="10">
+        <v>7.7300000000000006E-15</v>
+      </c>
+      <c r="B24" s="10">
+        <v>1.1E-16</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="11">
+        <v>1.6200000000000001E-15</v>
+      </c>
+      <c r="F24" s="11">
+        <v>7.7800000000000002E-17</v>
+      </c>
+      <c r="G24" s="10">
+        <v>1.9099999999999999E-14</v>
+      </c>
+      <c r="H24" s="10">
+        <v>1.97E-16</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K24" s="10">
+        <v>1.55E-14</v>
+      </c>
+      <c r="L24" s="10">
+        <v>2.0400000000000001E-16</v>
+      </c>
+      <c r="M24" s="7">
+        <v>2.8800000000000001E-14</v>
+      </c>
+      <c r="N24" s="7">
+        <v>5.0400000000000001E-16</v>
+      </c>
+      <c r="O24" s="7">
+        <v>2.8800000000000001E-14</v>
+      </c>
+      <c r="P24" s="7">
+        <v>3.0700000000000001E-16</v>
+      </c>
+      <c r="Q24" s="10">
+        <v>9.3000000000000004E-15</v>
+      </c>
+      <c r="R24" s="10">
+        <v>1.17E-16</v>
+      </c>
+      <c r="S24" t="s">
+        <v>46</v>
+      </c>
+      <c r="T24" s="4">
+        <v>45.28</v>
+      </c>
+      <c r="U24" s="4">
+        <v>1.07</v>
+      </c>
+      <c r="V24" s="4">
+        <v>3820</v>
+      </c>
+      <c r="W24" t="s">
+        <v>53</v>
+      </c>
+      <c r="X24" s="4"/>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A25" s="10">
+        <v>6.6E-15</v>
+      </c>
+      <c r="B25" s="10">
+        <v>2.7700000000000001E-16</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="11">
+        <v>1.53E-15</v>
+      </c>
+      <c r="F25" s="11">
+        <v>3.6200000000000002E-16</v>
+      </c>
+      <c r="G25" s="10">
+        <v>2.2199999999999999E-14</v>
+      </c>
+      <c r="H25" s="10">
+        <v>5.0099999999999996E-16</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K25" s="10">
+        <v>1.11E-14</v>
+      </c>
+      <c r="L25" s="10">
+        <v>3.5099999999999998E-16</v>
+      </c>
+      <c r="M25" s="7">
+        <v>4.1000000000000002E-14</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1.65E-15</v>
+      </c>
+      <c r="O25" s="7">
+        <v>3.1399999999999997E-14</v>
+      </c>
+      <c r="P25" s="7">
+        <v>7.1399999999999997E-16</v>
+      </c>
+      <c r="Q25" s="10">
+        <v>5.4899999999999997E-15</v>
+      </c>
+      <c r="R25" s="10">
+        <v>3.5300000000000002E-16</v>
+      </c>
+      <c r="S25" t="s">
+        <v>46</v>
+      </c>
+      <c r="T25" s="4">
+        <v>46.29</v>
+      </c>
+      <c r="U25" s="4">
+        <v>1.07</v>
+      </c>
+      <c r="V25" s="4">
+        <v>3820</v>
+      </c>
+      <c r="W25" t="s">
+        <v>54</v>
+      </c>
+      <c r="X25" s="4"/>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A26" s="10">
+        <v>6.1999999999999998E-15</v>
+      </c>
+      <c r="B26" s="10">
+        <v>2.9999999999999999E-16</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" s="11">
+        <v>2.2200000000000001E-16</v>
+      </c>
+      <c r="F26" s="11">
+        <v>3.5399999999999998E-16</v>
+      </c>
+      <c r="G26" s="10">
+        <v>1.4999999999999999E-14</v>
+      </c>
+      <c r="H26" s="10">
+        <v>4.9599999999999997E-16</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K26" s="10">
+        <v>9.6300000000000007E-15</v>
+      </c>
+      <c r="L26" s="10">
+        <v>3.4499999999999999E-16</v>
+      </c>
+      <c r="M26" s="7">
+        <v>3.5899999999999997E-14</v>
+      </c>
+      <c r="N26" s="7">
+        <v>1.58E-15</v>
+      </c>
+      <c r="O26" s="7">
+        <v>2.27E-14</v>
+      </c>
+      <c r="P26" s="7">
+        <v>6.2100000000000003E-16</v>
+      </c>
+      <c r="Q26" s="10">
+        <v>6.2100000000000003E-15</v>
+      </c>
+      <c r="R26" s="10">
+        <v>3.49E-16</v>
+      </c>
+      <c r="S26" t="s">
+        <v>46</v>
+      </c>
+      <c r="T26" s="4">
+        <v>46.05</v>
+      </c>
+      <c r="U26" s="4">
+        <v>0.92</v>
+      </c>
+      <c r="V26" s="4">
+        <v>3250</v>
+      </c>
+      <c r="W26" t="s">
+        <v>55</v>
+      </c>
+      <c r="X26" s="4"/>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A27" s="10">
+        <v>7.1400000000000001E-15</v>
+      </c>
+      <c r="B27" s="10">
+        <v>3.1300000000000001E-16</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" s="11">
+        <v>1.64E-15</v>
+      </c>
+      <c r="F27" s="11">
+        <v>3.9299999999999998E-16</v>
+      </c>
+      <c r="G27" s="10">
+        <v>2.2400000000000001E-14</v>
+      </c>
+      <c r="H27" s="10">
+        <v>7.4700000000000001E-16</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K27" s="10">
+        <v>9.2400000000000003E-15</v>
+      </c>
+      <c r="L27" s="10">
+        <v>3.49E-16</v>
+      </c>
+      <c r="M27" s="7">
+        <v>4.2500000000000002E-14</v>
+      </c>
+      <c r="N27" s="7">
+        <v>2.0799999999999999E-15</v>
+      </c>
+      <c r="O27" s="7">
+        <v>2.94E-14</v>
+      </c>
+      <c r="P27" s="7">
+        <v>8.4400000000000001E-16</v>
+      </c>
+      <c r="Q27" s="10">
+        <v>8.8699999999999994E-15</v>
+      </c>
+      <c r="R27" s="10">
+        <v>4.6499999999999996E-16</v>
+      </c>
+      <c r="S27" t="s">
+        <v>46</v>
+      </c>
+      <c r="T27" s="4">
+        <v>40.24</v>
+      </c>
+      <c r="U27" s="4">
+        <v>0.92</v>
+      </c>
+      <c r="V27" s="4">
+        <v>3250</v>
+      </c>
+      <c r="W27" t="s">
+        <v>56</v>
+      </c>
+      <c r="X27" s="4"/>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" t="s">
+        <v>46</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L28" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M28" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N28" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O28" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="P28" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q28" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R28" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="S28" t="s">
+        <v>46</v>
+      </c>
+      <c r="T28" s="4">
+        <v>11.21</v>
+      </c>
+      <c r="U28" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="V28" s="4">
+        <v>3670</v>
+      </c>
+      <c r="W28" t="s">
+        <v>57</v>
+      </c>
+      <c r="X28" s="4"/>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A29" s="10">
+        <v>7.6299999999999997E-16</v>
+      </c>
+      <c r="B29" s="10">
+        <v>6.7000000000000004E-17</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" s="11">
+        <v>3.34E-16</v>
+      </c>
+      <c r="F29" s="11">
+        <v>1.35E-16</v>
+      </c>
+      <c r="G29" s="10">
+        <v>2.9799999999999999E-15</v>
+      </c>
+      <c r="H29" s="10">
+        <v>1.17E-16</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M29" s="7">
+        <v>9.7899999999999993E-16</v>
+      </c>
+      <c r="N29" s="7">
+        <v>6.5800000000000004E-17</v>
+      </c>
+      <c r="O29" s="7">
+        <v>2.84E-15</v>
+      </c>
+      <c r="P29" s="7">
+        <v>1.0200000000000001E-16</v>
+      </c>
+      <c r="Q29" s="10">
+        <v>2.2999999999999999E-15</v>
+      </c>
+      <c r="R29" s="10">
+        <v>1.23E-16</v>
+      </c>
+      <c r="S29" t="s">
+        <v>46</v>
+      </c>
+      <c r="T29" s="4">
+        <v>45.99</v>
+      </c>
+      <c r="U29" s="4">
+        <v>0.53</v>
+      </c>
+      <c r="V29" s="4">
+        <v>3630</v>
+      </c>
+      <c r="W29" t="s">
+        <v>58</v>
+      </c>
+      <c r="X29" s="4"/>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A30" s="11">
+        <v>7.6600000000000002E-16</v>
+      </c>
+      <c r="B30" s="11">
+        <v>3.5600000000000002E-17</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" t="s">
+        <v>46</v>
+      </c>
+      <c r="E30" t="s">
+        <v>46</v>
+      </c>
+      <c r="F30" t="s">
+        <v>46</v>
+      </c>
+      <c r="G30" s="10">
+        <v>2.9700000000000001E-15</v>
+      </c>
+      <c r="H30" s="10">
+        <v>7.1599999999999995E-17</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L30" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M30" s="7">
+        <v>1.3400000000000001E-15</v>
+      </c>
+      <c r="N30" s="7">
+        <v>7.3699999999999995E-17</v>
+      </c>
+      <c r="O30" s="7">
+        <v>4.0700000000000003E-15</v>
+      </c>
+      <c r="P30" s="7">
+        <v>1.11E-16</v>
+      </c>
+      <c r="Q30" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="R30" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="S30" t="s">
+        <v>46</v>
+      </c>
+      <c r="T30" s="4">
+        <v>42.11</v>
+      </c>
+      <c r="U30" s="4">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="V30" s="4">
+        <v>3420</v>
+      </c>
+      <c r="W30" t="s">
+        <v>59</v>
+      </c>
+      <c r="X30" s="4"/>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" t="s">
+        <v>46</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N31" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="O31" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="P31" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q31" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="R31" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="S31" t="s">
+        <v>46</v>
+      </c>
+      <c r="T31" s="4">
+        <v>53.29</v>
+      </c>
+      <c r="U31" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="V31" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="W31" t="s">
+        <v>60</v>
+      </c>
+      <c r="X31" s="4"/>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="S32" t="s">
+        <v>46</v>
+      </c>
+      <c r="T32" s="4">
+        <v>36.93</v>
+      </c>
+      <c r="U32" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="V32" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="W32" t="s">
+        <v>48</v>
+      </c>
+      <c r="X32" s="4"/>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="R33" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="S33" t="s">
+        <v>46</v>
+      </c>
+      <c r="T33" s="4">
+        <v>41.71</v>
+      </c>
+      <c r="U33" s="4">
+        <v>0.54</v>
+      </c>
+      <c r="V33" s="4">
+        <v>3820</v>
+      </c>
+      <c r="W33" t="s">
+        <v>61</v>
+      </c>
+      <c r="X33" s="4"/>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="M34" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N34" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="O34" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="P34" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q34" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="R34" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="S34" t="s">
+        <v>46</v>
+      </c>
+      <c r="T34" s="4">
+        <v>46.14</v>
+      </c>
+      <c r="U34" s="4">
+        <v>0.62</v>
+      </c>
+      <c r="V34" s="4">
+        <v>3710</v>
+      </c>
+      <c r="W34" t="s">
+        <v>62</v>
+      </c>
+      <c r="X34" s="4"/>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="P35" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="R35" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="S35" t="s">
+        <v>46</v>
+      </c>
+      <c r="T35" s="4">
+        <v>47.86</v>
+      </c>
+      <c r="U35" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="V35" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="W35" t="s">
+        <v>63</v>
+      </c>
+      <c r="X35" s="4"/>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A36" s="10">
+        <v>4.76E-15</v>
+      </c>
+      <c r="B36" s="10">
+        <v>2.03E-16</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E36" s="11">
+        <v>1.08E-15</v>
+      </c>
+      <c r="F36" s="11">
+        <v>2.46E-16</v>
+      </c>
+      <c r="G36" s="10">
+        <v>1.3499999999999999E-14</v>
+      </c>
+      <c r="H36" s="10">
+        <v>3.8799999999999999E-16</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K36" s="10">
+        <v>8.5500000000000005E-15</v>
+      </c>
+      <c r="L36" s="10">
+        <v>4.2300000000000002E-16</v>
+      </c>
+      <c r="M36" s="7">
+        <v>3.5700000000000002E-14</v>
+      </c>
+      <c r="N36" s="7">
+        <v>3.5500000000000001E-15</v>
+      </c>
+      <c r="O36" s="7">
+        <v>1.3E-14</v>
+      </c>
+      <c r="P36" s="7">
+        <v>2.16E-15</v>
+      </c>
+      <c r="Q36" s="10">
+        <v>6.2699999999999997E-15</v>
+      </c>
+      <c r="R36" s="10">
+        <v>2.8900000000000001E-16</v>
+      </c>
+      <c r="S36" t="s">
+        <v>46</v>
+      </c>
+      <c r="T36" s="4">
+        <v>48.06</v>
+      </c>
+      <c r="U36" s="4">
+        <v>0.92</v>
+      </c>
+      <c r="V36" s="4">
+        <v>3250</v>
+      </c>
+      <c r="W36" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="X36" s="4"/>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A37" s="11">
+        <v>2.0100000000000001E-16</v>
+      </c>
+      <c r="B37" s="11">
+        <v>1.2800000000000001E-16</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E37" s="11">
+        <v>1.7399999999999999E-16</v>
+      </c>
+      <c r="F37" s="11">
+        <v>2.4499999999999999E-16</v>
+      </c>
+      <c r="G37" s="10">
+        <v>9.1999999999999996E-16</v>
+      </c>
+      <c r="H37" s="10">
+        <v>2.2200000000000001E-16</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K37" s="11">
+        <v>8.9000000000000007E-16</v>
+      </c>
+      <c r="L37" s="11">
+        <v>2.7400000000000001E-16</v>
+      </c>
+      <c r="M37" s="12">
+        <v>1.3299999999999999E-15</v>
+      </c>
+      <c r="N37" s="12">
+        <v>1.2900000000000001E-15</v>
+      </c>
+      <c r="O37" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="P37" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q37" s="11">
+        <v>6.6699999999999999E-16</v>
+      </c>
+      <c r="R37" s="11">
+        <v>2.2999999999999999E-16</v>
+      </c>
+      <c r="S37" t="s">
+        <v>46</v>
+      </c>
+      <c r="T37" s="4">
+        <v>13.68</v>
+      </c>
+      <c r="U37" s="4">
+        <v>0.48</v>
+      </c>
+      <c r="V37" s="4">
+        <v>3750</v>
+      </c>
+      <c r="W37" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="X37" s="4"/>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A38" s="10">
+        <v>3.7899999999999997E-15</v>
+      </c>
+      <c r="B38" s="10">
+        <v>1.82E-16</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E38" s="11">
+        <v>6.7400000000000001E-16</v>
+      </c>
+      <c r="F38" s="11">
+        <v>1.82E-16</v>
+      </c>
+      <c r="G38" s="10">
+        <v>1.04E-14</v>
+      </c>
+      <c r="H38" s="10">
+        <v>3.1700000000000002E-16</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K38" s="10">
+        <v>5.0300000000000001E-15</v>
+      </c>
+      <c r="L38" s="10">
+        <v>2.5000000000000002E-16</v>
+      </c>
+      <c r="M38" s="7">
+        <v>1.62E-14</v>
+      </c>
+      <c r="N38" s="7">
+        <v>1.59E-15</v>
+      </c>
+      <c r="O38" s="7">
+        <v>1.6099999999999999E-14</v>
+      </c>
+      <c r="P38" s="7">
+        <v>6.5700000000000003E-16</v>
+      </c>
+      <c r="Q38" s="10">
+        <v>4.7699999999999998E-15</v>
+      </c>
+      <c r="R38" s="10">
+        <v>2.3800000000000002E-16</v>
+      </c>
+      <c r="S38" t="s">
+        <v>46</v>
+      </c>
+      <c r="T38" s="4">
+        <v>50.22</v>
+      </c>
+      <c r="U38" s="4">
+        <v>0.92</v>
+      </c>
+      <c r="V38" s="4">
+        <v>3250</v>
+      </c>
+      <c r="W38" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="X38" s="4"/>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L39" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M39" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N39" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O39" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="P39" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q39" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R39" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="S39" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="T39" s="4">
+        <v>25.33</v>
+      </c>
+      <c r="U39" s="4">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="V39" s="4">
+        <v>3260</v>
+      </c>
+      <c r="W39" t="s">
+        <v>67</v>
+      </c>
+      <c r="X39" s="4"/>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K40" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L40" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M40" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N40" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O40" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="P40" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q40" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R40" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="S40" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="T40" s="4">
+        <v>9.86</v>
+      </c>
+      <c r="U40" s="4">
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="V40" s="4">
+        <v>3455</v>
+      </c>
+      <c r="W40" t="s">
+        <v>68</v>
+      </c>
+      <c r="X40" s="4"/>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L41" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M41" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N41" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O41" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="P41" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q41" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R41" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="S41" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="T41" s="4">
+        <v>20.86</v>
+      </c>
+      <c r="U41" s="4">
+        <v>0.77</v>
+      </c>
+      <c r="V41" s="4">
+        <v>3180</v>
+      </c>
+      <c r="W41" t="s">
+        <v>69</v>
+      </c>
+      <c r="X41" s="4"/>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J42" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K42" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L42" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M42" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N42" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O42" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="P42" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q42" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R42" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="S42" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="T42" s="4">
+        <v>35.04</v>
+      </c>
+      <c r="U42" s="4">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="V42" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="W42" t="s">
+        <v>70</v>
+      </c>
+      <c r="X42" s="4"/>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A43" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K43" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L43" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M43" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N43" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O43" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="P43" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q43" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R43" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="S43" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="T43" s="4">
+        <v>16.8</v>
+      </c>
+      <c r="U43" s="4">
+        <v>0.48</v>
+      </c>
+      <c r="V43" s="4">
+        <v>3350</v>
+      </c>
+      <c r="W43" t="s">
+        <v>71</v>
+      </c>
+      <c r="X43" s="4"/>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J44" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K44" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L44" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M44" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N44" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O44" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="P44" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q44" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R44" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="S44" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="T44" s="4">
+        <v>26.9</v>
+      </c>
+      <c r="U44" s="4">
+        <v>0.93</v>
+      </c>
+      <c r="V44" s="4">
+        <v>3880</v>
+      </c>
+      <c r="W44" t="s">
+        <v>72</v>
+      </c>
+      <c r="X44" s="4"/>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J45" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K45" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L45" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M45" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N45" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O45" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="P45" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q45" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R45" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="S45" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="T45" s="4">
+        <v>22.4</v>
+      </c>
+      <c r="U45" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="V45" s="4">
+        <v>3650</v>
+      </c>
+      <c r="W45" t="s">
+        <v>73</v>
+      </c>
+      <c r="X45" s="4"/>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A46" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J46" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K46" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L46" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M46" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N46" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O46" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="P46" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q46" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R46" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="S46" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="T46" s="4">
+        <v>11.94</v>
+      </c>
+      <c r="U46" s="4">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="V46" s="4">
+        <v>3640</v>
+      </c>
+      <c r="W46" t="s">
+        <v>74</v>
+      </c>
+      <c r="X46" s="4"/>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A47" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J47" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K47" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L47" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M47" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N47" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O47" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="P47" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q47" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R47" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="S47" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="T47" s="4">
+        <v>37.04</v>
+      </c>
+      <c r="U47" s="4">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="V47" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="W47" t="s">
+        <v>75</v>
+      </c>
+      <c r="X47" s="4"/>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A48" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J48" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K48" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L48" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M48" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N48" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O48" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="P48" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q48" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R48" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="S48" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="T48" s="4">
+        <v>29.14</v>
+      </c>
+      <c r="U48" s="4">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="V48" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="W48" t="s">
+        <v>76</v>
+      </c>
+      <c r="X48" s="4"/>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A49" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J49" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K49" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="L49" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M49" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="N49" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O49" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="P49" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q49" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="R49" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="S49" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="T49" s="4">
+        <v>44.76</v>
+      </c>
+      <c r="U49" s="4">
+        <v>0.41</v>
+      </c>
+      <c r="V49" s="4">
+        <v>3560</v>
+      </c>
+      <c r="W49" t="s">
+        <v>77</v>
+      </c>
+      <c r="X49" s="4"/>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E50" s="1">
+        <v>1.6199999999999999E-16</v>
+      </c>
+      <c r="F50" s="1">
+        <v>1.62E-17</v>
+      </c>
+      <c r="G50" s="1">
+        <v>2.3200000000000002E-16</v>
+      </c>
+      <c r="H50" s="1">
+        <v>2.32E-17</v>
+      </c>
+      <c r="I50" s="1">
+        <v>7.1300000000000003E-15</v>
+      </c>
+      <c r="J50" s="1">
+        <v>2.2999999999999999E-15</v>
+      </c>
+      <c r="K50" s="1">
+        <v>2.1300000000000001E-16</v>
+      </c>
+      <c r="L50" s="1">
+        <v>2.1299999999999999E-17</v>
+      </c>
+      <c r="M50" s="1">
+        <v>2.5699999999999999E-16</v>
+      </c>
+      <c r="N50" s="1">
+        <v>2.57E-17</v>
+      </c>
+      <c r="O50" s="1">
+        <v>5.22E-16</v>
+      </c>
+      <c r="P50" s="1">
+        <v>1.55E-16</v>
+      </c>
+      <c r="Q50" s="1">
+        <v>3.58E-16</v>
+      </c>
+      <c r="R50" s="1">
+        <v>3.5799999999999997E-17</v>
+      </c>
+      <c r="S50" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="T50" s="3">
+        <v>5.79</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="V50" s="3">
+        <v>3250</v>
+      </c>
+      <c r="W50" t="s">
+        <v>78</v>
+      </c>
+      <c r="X50" s="4"/>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A51" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G51" s="1">
+        <v>5.4E-16</v>
+      </c>
+      <c r="H51" s="7">
+        <v>1.2099999999999999E-16</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J51" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K51" s="7">
+        <v>4.0500000000000002E-16</v>
+      </c>
+      <c r="L51" s="7">
+        <v>7.5400000000000002E-17</v>
+      </c>
+      <c r="M51" s="7">
+        <v>1.1200000000000001E-15</v>
+      </c>
+      <c r="N51" s="7">
+        <v>2.55E-16</v>
+      </c>
+      <c r="O51" s="7">
+        <v>1.14E-15</v>
+      </c>
+      <c r="P51" s="7">
+        <v>2.03E-16</v>
+      </c>
+      <c r="Q51" s="7">
+        <v>3.2900000000000002E-16</v>
+      </c>
+      <c r="R51" s="7">
+        <v>7.9199999999999998E-17</v>
+      </c>
+      <c r="S51" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="T51" s="4">
+        <v>24.8</v>
+      </c>
+      <c r="U51" s="4">
+        <v>0.59699999999999998</v>
+      </c>
+      <c r="V51" s="4">
+        <v>3560</v>
+      </c>
+      <c r="W51" t="s">
+        <v>79</v>
+      </c>
+      <c r="X51" s="4"/>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>5.58E-16</v>
+      </c>
+      <c r="B52" s="1">
+        <v>6.5600000000000001E-16</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E52" s="1">
+        <v>9.5199999999999999E-17</v>
+      </c>
+      <c r="F52" s="1">
+        <v>9.5200000000000002E-18</v>
+      </c>
+      <c r="G52" s="1">
+        <v>1.0500000000000001E-16</v>
+      </c>
+      <c r="H52" s="1">
+        <v>2.8899999999999999E-17</v>
+      </c>
+      <c r="I52" s="1">
+        <v>2.6200000000000001E-14</v>
+      </c>
+      <c r="J52" s="1">
+        <v>2.6899999999999999E-15</v>
+      </c>
+      <c r="K52" s="1">
+        <v>8.1599999999999997E-17</v>
+      </c>
+      <c r="L52" s="1">
+        <v>4.2899999999999998E-17</v>
+      </c>
+      <c r="M52" s="1">
+        <v>6.8399999999999997E-16</v>
+      </c>
+      <c r="N52" s="1">
+        <v>2.5300000000000002E-16</v>
+      </c>
+      <c r="O52" s="1">
+        <v>6.6900000000000002E-16</v>
+      </c>
+      <c r="P52" s="1">
+        <v>1.9000000000000001E-16</v>
+      </c>
+      <c r="Q52" s="1">
+        <v>1.9499999999999999E-16</v>
+      </c>
+      <c r="R52" s="1">
+        <v>1.9499999999999999E-17</v>
+      </c>
+      <c r="S52" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="T52" s="3">
+        <v>11.81</v>
+      </c>
+      <c r="U52" s="3">
+        <v>0.37</v>
+      </c>
+      <c r="V52" s="3">
+        <v>3670</v>
+      </c>
+      <c r="W52" t="s">
+        <v>80</v>
+      </c>
+      <c r="X52" s="4"/>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A53" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J53" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K53" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L53" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M53" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N53" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O53" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="P53" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q53" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R53" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="S53" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="T53" s="4">
+        <v>3.93</v>
+      </c>
+      <c r="U53" s="4">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="V53" s="4">
+        <v>3570</v>
+      </c>
+      <c r="W53" t="s">
+        <v>81</v>
+      </c>
+      <c r="X53" s="4"/>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A54" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J54" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K54" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L54" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M54" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N54" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O54" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="P54" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q54" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R54" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="S54" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="T54" s="4">
+        <v>5.54</v>
+      </c>
+      <c r="U54" s="4">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="V54" s="4">
+        <v>3270</v>
+      </c>
+      <c r="W54" t="s">
+        <v>82</v>
+      </c>
+      <c r="X54" s="4"/>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A55" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J55" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K55" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="L55" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M55" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="N55" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O55" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="P55" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q55" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="R55" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="S55" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="T55" s="4">
+        <v>16.09</v>
+      </c>
+      <c r="U55" s="4">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="V55" s="4">
+        <v>3200</v>
+      </c>
+      <c r="W55" t="s">
+        <v>83</v>
+      </c>
+      <c r="X55" s="4"/>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A56" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I56" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J56" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K56" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L56" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M56" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N56" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O56" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="P56" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q56" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R56" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="S56" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="T56" s="4">
+        <v>10.51</v>
+      </c>
+      <c r="U56" s="4">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="V56" s="4">
+        <v>3400</v>
+      </c>
+      <c r="W56" t="s">
+        <v>84</v>
+      </c>
+      <c r="X56" s="4"/>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>1.4100000000000001E-13</v>
+      </c>
+      <c r="B57" s="1">
+        <v>8.8800000000000003E-16</v>
+      </c>
+      <c r="C57" s="1">
+        <v>8.0699999999999993E-12</v>
+      </c>
+      <c r="D57" s="1">
+        <v>2.0000000000000001E-13</v>
+      </c>
+      <c r="E57" s="1">
+        <v>1.4100000000000001E-13</v>
+      </c>
+      <c r="F57" s="1">
+        <v>5.8900000000000001E-16</v>
+      </c>
+      <c r="G57" s="1">
+        <v>1.6400000000000001E-14</v>
+      </c>
+      <c r="H57" s="1">
+        <v>2.58E-16</v>
+      </c>
+      <c r="I57" s="1">
+        <v>1.66E-13</v>
+      </c>
+      <c r="J57" s="1">
+        <v>4.8299999999999996E-16</v>
+      </c>
+      <c r="K57" s="1">
+        <v>1.7399999999999999E-13</v>
+      </c>
+      <c r="L57" s="1">
+        <v>5.3899999999999998E-16</v>
+      </c>
+      <c r="M57" s="1">
+        <v>5.6600000000000001E-13</v>
+      </c>
+      <c r="N57" s="1">
+        <v>1.2099999999999999E-15</v>
+      </c>
+      <c r="O57" s="1">
+        <v>3.0199999999999998E-13</v>
+      </c>
+      <c r="P57" s="1">
+        <v>9.4499999999999997E-16</v>
+      </c>
+      <c r="Q57" s="1">
+        <v>2.79E-12</v>
+      </c>
+      <c r="R57" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="S57" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="T57" s="3">
+        <v>4.97</v>
+      </c>
+      <c r="U57" s="3">
+        <v>0.44</v>
+      </c>
+      <c r="V57" s="3">
+        <v>3410</v>
+      </c>
+      <c r="W57" t="s">
+        <v>100</v>
+      </c>
+      <c r="X57" s="4"/>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>1.4100000000000001E-13</v>
+      </c>
+      <c r="B58" s="1">
+        <v>3.4499999999999999E-16</v>
+      </c>
+      <c r="C58" s="1">
+        <v>1.0699999999999999E-11</v>
+      </c>
+      <c r="D58" s="1">
+        <v>4.0000000000000001E-13</v>
+      </c>
+      <c r="E58" s="1">
+        <v>7.4200000000000002E-14</v>
+      </c>
+      <c r="F58" s="1">
+        <v>1.82E-16</v>
+      </c>
+      <c r="G58" s="1">
+        <v>1.09E-14</v>
+      </c>
+      <c r="H58" s="1">
+        <v>8.9699999999999996E-17</v>
+      </c>
+      <c r="I58" s="1">
+        <v>1.4399999999999999E-13</v>
+      </c>
+      <c r="J58" s="1">
+        <v>1.8100000000000001E-16</v>
+      </c>
+      <c r="K58" s="1">
+        <v>9.5299999999999995E-14</v>
+      </c>
+      <c r="L58" s="1">
+        <v>1.6300000000000001E-16</v>
+      </c>
+      <c r="M58" s="1">
+        <v>3.55E-13</v>
+      </c>
+      <c r="N58" s="1">
+        <v>3.8499999999999999E-16</v>
+      </c>
+      <c r="O58" s="1">
+        <v>2.7499999999999999E-13</v>
+      </c>
+      <c r="P58" s="1">
+        <v>3.5000000000000002E-16</v>
+      </c>
+      <c r="Q58" s="1">
+        <v>4.1999999999999999E-12</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="S58" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="T58" s="3">
+        <v>9.7200000000000006</v>
+      </c>
+      <c r="U58" s="3">
+        <v>0.83</v>
+      </c>
+      <c r="V58" s="3">
+        <v>3650</v>
+      </c>
+      <c r="W58" t="s">
+        <v>101</v>
+      </c>
+      <c r="X58" s="4"/>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>1.4100000000000001E-13</v>
+      </c>
+      <c r="B59" s="1">
+        <v>1.4600000000000001E-15</v>
+      </c>
+      <c r="C59" s="1">
+        <v>2.7500000000000002E-12</v>
+      </c>
+      <c r="D59" s="3">
         <v>0</v>
       </c>
+      <c r="E59" s="1">
+        <v>3.9099999999999999E-14</v>
+      </c>
+      <c r="F59" s="1">
+        <v>9.0300000000000008E-16</v>
+      </c>
+      <c r="G59" s="1">
+        <v>2.4899999999999998E-15</v>
+      </c>
+      <c r="H59" s="1">
+        <v>4.9499999999999996E-16</v>
+      </c>
+      <c r="I59" s="1">
+        <v>3.7599999999999999E-14</v>
+      </c>
+      <c r="J59" s="1">
+        <v>6.4199999999999998E-16</v>
+      </c>
+      <c r="K59" s="1">
+        <v>1.8200000000000001E-14</v>
+      </c>
+      <c r="L59" s="1">
+        <v>9.7600000000000008E-16</v>
+      </c>
+      <c r="M59" s="1">
+        <v>1.4100000000000001E-13</v>
+      </c>
+      <c r="N59" s="1">
+        <v>1.9599999999999999E-15</v>
+      </c>
+      <c r="O59" s="1">
+        <v>7.4099999999999995E-14</v>
+      </c>
+      <c r="P59" s="1">
+        <v>1.58E-15</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="S59" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="T59" s="3">
+        <v>5.05</v>
+      </c>
+      <c r="U59" s="3">
+        <v>0.36</v>
+      </c>
+      <c r="V59" s="3">
+        <v>3330</v>
+      </c>
+      <c r="W59" t="s">
+        <v>102</v>
+      </c>
+      <c r="X59" s="4"/>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>1.4100000000000001E-13</v>
+      </c>
+      <c r="B60" s="1">
+        <v>7.5699999999999997E-16</v>
+      </c>
+      <c r="C60" s="1">
+        <v>4.21E-12</v>
+      </c>
+      <c r="D60" s="3">
+        <v>0</v>
+      </c>
+      <c r="E60" s="1">
+        <v>4E-14</v>
+      </c>
+      <c r="F60" s="1">
+        <v>4.5600000000000001E-16</v>
+      </c>
+      <c r="G60" s="1">
+        <v>2.1400000000000001E-15</v>
+      </c>
+      <c r="H60" s="1">
+        <v>2.08E-16</v>
+      </c>
+      <c r="I60" s="1">
+        <v>2.61E-14</v>
+      </c>
+      <c r="J60" s="1">
+        <v>2.79E-16</v>
+      </c>
+      <c r="K60" s="1">
+        <v>2.72E-14</v>
+      </c>
+      <c r="L60" s="1">
+        <v>3.8300000000000001E-16</v>
+      </c>
+      <c r="M60" s="1">
+        <v>1.3799999999999999E-13</v>
+      </c>
+      <c r="N60" s="1">
+        <v>9.1300000000000004E-16</v>
+      </c>
+      <c r="O60" s="1">
+        <v>3.0799999999999999E-14</v>
+      </c>
+      <c r="P60" s="1">
+        <v>5.8699999999999997E-16</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+      <c r="R60" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="S60" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="T60" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="U60" s="3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="V60" s="3">
+        <v>3100</v>
+      </c>
+      <c r="W60" t="s">
+        <v>103</v>
+      </c>
+      <c r="X60" s="4"/>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>0</v>
+      </c>
+      <c r="B61" s="1">
+        <v>0</v>
+      </c>
+      <c r="C61" s="1">
+        <v>2.64E-14</v>
+      </c>
+      <c r="D61" s="1">
+        <v>2.6399999999999999E-15</v>
+      </c>
+      <c r="E61" s="1">
+        <v>0</v>
+      </c>
+      <c r="F61" s="1">
+        <v>0</v>
+      </c>
+      <c r="G61" s="1">
+        <v>0</v>
+      </c>
+      <c r="H61" s="1">
+        <v>0</v>
+      </c>
+      <c r="I61" s="1">
+        <v>0</v>
+      </c>
+      <c r="J61" s="1">
+        <v>0</v>
+      </c>
+      <c r="K61" s="1">
+        <v>0</v>
+      </c>
+      <c r="L61" s="1">
+        <v>0</v>
+      </c>
+      <c r="M61" s="1">
+        <v>0</v>
+      </c>
+      <c r="N61" s="1">
+        <v>0</v>
+      </c>
+      <c r="O61" s="1">
+        <v>0</v>
+      </c>
+      <c r="P61" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="1">
+        <v>0</v>
+      </c>
+      <c r="R61" s="1">
+        <v>0</v>
+      </c>
+      <c r="S61" s="1">
+        <v>2.3100000000000001E-14</v>
+      </c>
+      <c r="T61" s="3">
+        <v>12.62</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0.21</v>
+      </c>
+      <c r="V61" s="3">
+        <v>3270</v>
+      </c>
+      <c r="W61" t="s">
+        <v>104</v>
+      </c>
+      <c r="X61" s="4"/>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>46</v>
+      </c>
+      <c r="B62" t="s">
+        <v>46</v>
+      </c>
+      <c r="C62" t="s">
+        <v>46</v>
+      </c>
+      <c r="D62" t="s">
+        <v>46</v>
+      </c>
+      <c r="E62" t="s">
+        <v>46</v>
+      </c>
+      <c r="F62" t="s">
+        <v>46</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>46</v>
+      </c>
+      <c r="I62" t="s">
+        <v>46</v>
+      </c>
+      <c r="J62" t="s">
+        <v>46</v>
+      </c>
+      <c r="K62" t="s">
+        <v>46</v>
+      </c>
+      <c r="L62" t="s">
+        <v>46</v>
+      </c>
+      <c r="M62" t="s">
+        <v>46</v>
+      </c>
+      <c r="N62" t="s">
+        <v>46</v>
+      </c>
+      <c r="O62" t="s">
+        <v>46</v>
+      </c>
+      <c r="P62" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>46</v>
+      </c>
+      <c r="R62" t="s">
+        <v>46</v>
+      </c>
+      <c r="S62" t="s">
+        <v>46</v>
+      </c>
+      <c r="T62" s="4">
+        <v>29.45</v>
+      </c>
+      <c r="U62" s="4">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="V62" s="4">
+        <v>3600</v>
+      </c>
+      <c r="W62" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>46</v>
+      </c>
+      <c r="B63" t="s">
+        <v>46</v>
+      </c>
+      <c r="C63" t="s">
+        <v>46</v>
+      </c>
+      <c r="D63" t="s">
+        <v>46</v>
+      </c>
+      <c r="E63" t="s">
+        <v>46</v>
+      </c>
+      <c r="F63" t="s">
+        <v>46</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>46</v>
+      </c>
+      <c r="I63" t="s">
+        <v>46</v>
+      </c>
+      <c r="J63" t="s">
+        <v>46</v>
+      </c>
+      <c r="K63" t="s">
+        <v>46</v>
+      </c>
+      <c r="L63" t="s">
+        <v>46</v>
+      </c>
+      <c r="M63" t="s">
+        <v>46</v>
+      </c>
+      <c r="N63" t="s">
+        <v>46</v>
+      </c>
+      <c r="O63" t="s">
+        <v>46</v>
+      </c>
+      <c r="P63" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>46</v>
+      </c>
+      <c r="R63" t="s">
+        <v>46</v>
+      </c>
+      <c r="S63" t="s">
+        <v>46</v>
+      </c>
+      <c r="T63" s="4">
+        <v>45.01</v>
+      </c>
+      <c r="U63" s="4">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="V63" s="4">
+        <v>3180</v>
+      </c>
+      <c r="W63" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>46</v>
+      </c>
+      <c r="B64" t="s">
+        <v>46</v>
+      </c>
+      <c r="C64" t="s">
+        <v>46</v>
+      </c>
+      <c r="D64" t="s">
+        <v>46</v>
+      </c>
+      <c r="E64" t="s">
+        <v>46</v>
+      </c>
+      <c r="F64" t="s">
+        <v>46</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>46</v>
+      </c>
+      <c r="I64" t="s">
+        <v>46</v>
+      </c>
+      <c r="J64" t="s">
+        <v>46</v>
+      </c>
+      <c r="K64" t="s">
+        <v>46</v>
+      </c>
+      <c r="L64" t="s">
+        <v>46</v>
+      </c>
+      <c r="M64" t="s">
+        <v>46</v>
+      </c>
+      <c r="N64" t="s">
+        <v>46</v>
+      </c>
+      <c r="O64" t="s">
+        <v>46</v>
+      </c>
+      <c r="P64" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>46</v>
+      </c>
+      <c r="R64" t="s">
+        <v>46</v>
+      </c>
+      <c r="S64" t="s">
+        <v>46</v>
+      </c>
+      <c r="T64" s="4">
+        <v>11.98</v>
+      </c>
+      <c r="U64" s="4">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="V64" s="4">
+        <v>3290</v>
+      </c>
+      <c r="W64" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>46</v>
+      </c>
+      <c r="B65" t="s">
+        <v>46</v>
+      </c>
+      <c r="C65" t="s">
+        <v>46</v>
+      </c>
+      <c r="D65" t="s">
+        <v>46</v>
+      </c>
+      <c r="E65" t="s">
+        <v>46</v>
+      </c>
+      <c r="F65" t="s">
+        <v>46</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>46</v>
+      </c>
+      <c r="I65" t="s">
+        <v>46</v>
+      </c>
+      <c r="J65" t="s">
+        <v>46</v>
+      </c>
+      <c r="K65" t="s">
+        <v>46</v>
+      </c>
+      <c r="L65" t="s">
+        <v>46</v>
+      </c>
+      <c r="M65" t="s">
+        <v>46</v>
+      </c>
+      <c r="N65" t="s">
+        <v>46</v>
+      </c>
+      <c r="O65" t="s">
+        <v>46</v>
+      </c>
+      <c r="P65" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>46</v>
+      </c>
+      <c r="R65" t="s">
+        <v>46</v>
+      </c>
+      <c r="S65" t="s">
+        <v>46</v>
+      </c>
+      <c r="T65" s="4">
+        <v>59.88</v>
+      </c>
+      <c r="U65" s="4">
+        <v>0.91</v>
+      </c>
+      <c r="V65" s="4">
+        <v>3790</v>
+      </c>
+      <c r="W65" t="s">
+        <v>108</v>
+      </c>
+      <c r="X65" s="4"/>
+    </row>
+    <row r="66" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>46</v>
+      </c>
+      <c r="B66" t="s">
+        <v>46</v>
+      </c>
+      <c r="C66" t="s">
+        <v>46</v>
+      </c>
+      <c r="D66" t="s">
+        <v>46</v>
+      </c>
+      <c r="E66" t="s">
+        <v>46</v>
+      </c>
+      <c r="F66" t="s">
+        <v>46</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>46</v>
+      </c>
+      <c r="I66" t="s">
+        <v>46</v>
+      </c>
+      <c r="J66" t="s">
+        <v>46</v>
+      </c>
+      <c r="K66" t="s">
+        <v>46</v>
+      </c>
+      <c r="L66" t="s">
+        <v>46</v>
+      </c>
+      <c r="M66" t="s">
+        <v>46</v>
+      </c>
+      <c r="N66" t="s">
+        <v>46</v>
+      </c>
+      <c r="O66" t="s">
+        <v>46</v>
+      </c>
+      <c r="P66" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>46</v>
+      </c>
+      <c r="R66" t="s">
+        <v>46</v>
+      </c>
+      <c r="S66" t="s">
+        <v>46</v>
+      </c>
+      <c r="T66" s="4">
+        <v>59.98</v>
+      </c>
+      <c r="U66" s="4">
+        <v>0.94</v>
+      </c>
+      <c r="V66" s="4">
+        <v>3580</v>
+      </c>
+      <c r="W66" t="s">
+        <v>109</v>
+      </c>
+      <c r="X66" s="4"/>
+    </row>
+    <row r="67" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>46</v>
+      </c>
+      <c r="B67" t="s">
+        <v>46</v>
+      </c>
+      <c r="C67" t="s">
+        <v>46</v>
+      </c>
+      <c r="D67" t="s">
+        <v>46</v>
+      </c>
+      <c r="E67" t="s">
+        <v>46</v>
+      </c>
+      <c r="F67" t="s">
+        <v>46</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>46</v>
+      </c>
+      <c r="I67" t="s">
+        <v>46</v>
+      </c>
+      <c r="J67" t="s">
+        <v>46</v>
+      </c>
+      <c r="K67" t="s">
+        <v>46</v>
+      </c>
+      <c r="L67" t="s">
+        <v>46</v>
+      </c>
+      <c r="M67" t="s">
+        <v>46</v>
+      </c>
+      <c r="N67" t="s">
+        <v>46</v>
+      </c>
+      <c r="O67" t="s">
+        <v>46</v>
+      </c>
+      <c r="P67" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>46</v>
+      </c>
+      <c r="R67" t="s">
+        <v>46</v>
+      </c>
+      <c r="S67" t="s">
+        <v>46</v>
+      </c>
+      <c r="T67" s="4">
+        <v>34.03</v>
+      </c>
+      <c r="U67" s="4">
+        <v>0.59</v>
+      </c>
+      <c r="V67" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="W67" t="s">
+        <v>110</v>
+      </c>
+      <c r="X67" s="4"/>
+    </row>
+    <row r="68" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A68" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I68" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J68" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K68" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L68" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M68" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N68" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O68" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="P68" s="7">
+        <v>7.1E-16</v>
+      </c>
+      <c r="Q68" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R68" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="S68" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="T68" s="4">
+        <v>8.67</v>
+      </c>
+      <c r="U68" s="4">
+        <v>0.11</v>
+      </c>
+      <c r="V68" t="s">
+        <v>46</v>
+      </c>
+      <c r="W68" t="s">
+        <v>111</v>
+      </c>
+      <c r="X68" s="4"/>
+    </row>
+    <row r="69" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A69" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I69" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J69" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K69" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L69" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M69" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N69" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O69" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="P69" s="4"/>
+      <c r="Q69" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R69" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="S69" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="T69" s="4">
+        <v>7.06</v>
+      </c>
+      <c r="U69" s="4">
+        <v>0.12</v>
+      </c>
+      <c r="V69" t="s">
+        <v>46</v>
+      </c>
+      <c r="W69" t="s">
+        <v>112</v>
+      </c>
+      <c r="X69" s="4"/>
+    </row>
+    <row r="70" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A70" s="3">
+        <v>0</v>
+      </c>
+      <c r="B70" s="3">
+        <v>0</v>
+      </c>
+      <c r="C70" s="3">
+        <v>0</v>
+      </c>
+      <c r="D70" s="3">
+        <v>0</v>
+      </c>
+      <c r="E70" s="3">
+        <v>0</v>
+      </c>
+      <c r="F70" s="3">
+        <v>0</v>
+      </c>
+      <c r="G70" s="3">
+        <v>0</v>
+      </c>
+      <c r="H70" s="3">
+        <v>0</v>
+      </c>
+      <c r="I70" s="1">
+        <v>1.1E-12</v>
+      </c>
+      <c r="J70" s="1">
+        <v>1.42E-15</v>
+      </c>
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
+        <v>5.99</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0.36</v>
+      </c>
+      <c r="V70" s="3">
+        <v>3200</v>
+      </c>
+      <c r="W70" t="s">
+        <v>113</v>
+      </c>
+      <c r="X70" s="4"/>
+    </row>
+    <row r="71" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>46</v>
+      </c>
+      <c r="B71" t="s">
+        <v>46</v>
+      </c>
+      <c r="C71" t="s">
+        <v>46</v>
+      </c>
+      <c r="D71" t="s">
+        <v>46</v>
+      </c>
+      <c r="E71" t="s">
+        <v>46</v>
+      </c>
+      <c r="F71" t="s">
+        <v>46</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>46</v>
+      </c>
+      <c r="I71" t="s">
+        <v>46</v>
+      </c>
+      <c r="J71" t="s">
+        <v>46</v>
+      </c>
+      <c r="K71" t="s">
+        <v>46</v>
+      </c>
+      <c r="L71" t="s">
+        <v>46</v>
+      </c>
+      <c r="M71" t="s">
+        <v>46</v>
+      </c>
+      <c r="N71" t="s">
+        <v>46</v>
+      </c>
+      <c r="O71" t="s">
+        <v>46</v>
+      </c>
+      <c r="P71" s="7">
+        <v>2.8000000000000001E-15</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>46</v>
+      </c>
+      <c r="R71" t="s">
+        <v>46</v>
+      </c>
+      <c r="S71" t="s">
+        <v>46</v>
+      </c>
+      <c r="T71" s="4">
+        <v>5.92</v>
+      </c>
+      <c r="U71" s="4">
+        <v>0.107</v>
+      </c>
+      <c r="V71" s="4">
+        <v>2700</v>
+      </c>
+      <c r="W71" t="s">
+        <v>114</v>
+      </c>
+      <c r="X71" s="4"/>
+    </row>
+    <row r="72" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A72" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I72" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J72" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K72" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L72" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M72" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N72" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O72" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="P72" s="7">
+        <v>1.4000000000000001E-15</v>
+      </c>
+      <c r="Q72" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R72" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="S72" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="T72" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="U72" s="4">
+        <v>0.111</v>
+      </c>
+      <c r="V72" s="4">
+        <v>2730</v>
+      </c>
+      <c r="W72" t="s">
+        <v>115</v>
+      </c>
+      <c r="X72" s="4"/>
+    </row>
+    <row r="73" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A73" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I73" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J73" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K73" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L73" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M73" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N73" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O73" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="P73" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q73" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R73" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="S73" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="T73" s="4">
+        <v>12.47</v>
+      </c>
+      <c r="U73" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="V73" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="W73" t="s">
+        <v>117</v>
+      </c>
+      <c r="X73" s="4"/>
+    </row>
+    <row r="74" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A74" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I74" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J74" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K74" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L74" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M74" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N74" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O74" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="P74" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q74" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R74" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="S74" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="T74" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="U74" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="W74" t="s">
+        <v>116</v>
+      </c>
+      <c r="X74" s="4"/>
+    </row>
+    <row r="75" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A75" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I75" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J75" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K75" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L75" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M75" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N75" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O75" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="P75" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q75" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R75" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="S75" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="T75" s="4">
+        <v>16.03</v>
+      </c>
+      <c r="U75" s="4">
+        <v>0.308</v>
+      </c>
+      <c r="V75" s="4">
+        <v>3730</v>
+      </c>
+      <c r="W75" t="s">
+        <v>118</v>
+      </c>
+      <c r="X75" s="4"/>
+    </row>
+    <row r="76" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A76" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I76" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J76" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K76" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L76" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M76" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N76" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O76" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="P76" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q76" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R76" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="S76" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="T76" s="4">
+        <v>3.56</v>
+      </c>
+      <c r="U76" s="4">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="V76" s="4">
+        <v>3470</v>
+      </c>
+      <c r="W76" t="s">
+        <v>119</v>
+      </c>
+      <c r="X76" s="4"/>
+    </row>
+    <row r="77" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A77" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I77" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J77" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K77" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L77" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M77" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N77" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O77" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="P77" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q77" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R77" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="S77" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="T77" s="4">
+        <v>10.38</v>
+      </c>
+      <c r="U77" s="4">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="V77" s="4">
+        <v>3590</v>
+      </c>
+      <c r="W77" t="s">
+        <v>120</v>
+      </c>
+      <c r="X77" s="4"/>
+    </row>
+    <row r="78" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A78" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I78" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J78" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K78" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L78" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M78" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N78" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O78" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="P78" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q78" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R78" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="S78" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="T78" s="4">
+        <v>15.14</v>
+      </c>
+      <c r="U78" s="4">
+        <v>0.39</v>
+      </c>
+      <c r="V78" s="4">
+        <v>3225</v>
+      </c>
+      <c r="W78" t="s">
+        <v>121</v>
+      </c>
+      <c r="X78" s="4"/>
+    </row>
+    <row r="79" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A79" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I79" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J79" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K79" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L79" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M79" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N79" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O79" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="P79" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q79" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R79" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="S79" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="T79" s="4">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="U79" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="V79" s="4">
+        <v>3600</v>
+      </c>
+      <c r="W79" t="s">
+        <v>122</v>
+      </c>
+      <c r="X79" s="4"/>
+    </row>
+    <row r="80" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A80" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I80" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J80" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K80" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L80" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M80" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N80" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O80" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="P80" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q80" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R80" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="S80" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="T80" s="4">
+        <v>4.55</v>
+      </c>
+      <c r="U80" s="4">
+        <v>0.34</v>
+      </c>
+      <c r="V80" s="4">
+        <v>3260</v>
+      </c>
+      <c r="W80" t="s">
+        <v>123</v>
+      </c>
+      <c r="X80" s="4"/>
+    </row>
+    <row r="81" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A81" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I81" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J81" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K81" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L81" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M81" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N81" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O81" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="P81" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q81" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R81" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="S81" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="T81" s="4">
+        <v>1.83</v>
+      </c>
+      <c r="U81" s="4">
+        <v>0.18</v>
+      </c>
+      <c r="V81" s="4">
+        <v>3300</v>
+      </c>
+      <c r="W81" t="s">
+        <v>124</v>
+      </c>
+      <c r="X81" s="4"/>
+    </row>
+    <row r="82" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A82" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I82" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J82" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K82" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L82" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M82" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N82" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O82" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="P82" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q82" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R82" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="S82" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="T82" s="4">
+        <v>13.39</v>
+      </c>
+      <c r="U82" s="4">
+        <v>0.245</v>
+      </c>
+      <c r="V82" s="4">
+        <v>3350</v>
+      </c>
+      <c r="W82" t="s">
+        <v>125</v>
+      </c>
+      <c r="X82" s="4"/>
+    </row>
+    <row r="83" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A83" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I83" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J83" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K83" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L83" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M83" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N83" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O83" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="P83" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q83" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R83" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="S83" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="T83" s="4">
+        <v>12.46</v>
+      </c>
+      <c r="U83" s="4">
+        <v>0.161</v>
+      </c>
+      <c r="V83" s="4">
+        <v>3200</v>
+      </c>
+      <c r="W83" t="s">
+        <v>126</v>
+      </c>
+      <c r="X83" s="4"/>
+    </row>
+    <row r="84" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A84" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I84" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J84" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K84" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L84" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M84" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N84" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O84" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="P84" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q84" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R84" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="S84" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="T84" s="4">
+        <v>12.19</v>
+      </c>
+      <c r="U84" s="4">
+        <v>0.188</v>
+      </c>
+      <c r="V84" s="4">
+        <v>3220</v>
+      </c>
+      <c r="W84" t="s">
+        <v>127</v>
+      </c>
+      <c r="X84" s="4"/>
+    </row>
+    <row r="85" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A85" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I85" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J85" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K85" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L85" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M85" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N85" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O85" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="P85" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q85" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R85" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="S85" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="T85" s="4">
+        <v>2.98</v>
+      </c>
+      <c r="U85" s="4">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="V85" s="4">
+        <v>3240</v>
+      </c>
+      <c r="W85" t="s">
+        <v>128</v>
+      </c>
+      <c r="X85" s="4"/>
+    </row>
+    <row r="86" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A86" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I86" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J86" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K86" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L86" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M86" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N86" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O86" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="P86" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q86" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R86" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="S86" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="T86" s="4">
+        <v>44.13</v>
+      </c>
+      <c r="U86" t="s">
+        <v>46</v>
+      </c>
+      <c r="V86" t="s">
+        <v>46</v>
+      </c>
+      <c r="W86" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="X86" s="4"/>
+    </row>
+    <row r="87" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A87" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I87" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J87" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K87" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L87" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M87" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N87" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O87" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="P87" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q87" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R87" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="S87" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="T87" s="4">
+        <v>21.3</v>
+      </c>
+      <c r="U87" s="4">
+        <v>0.32900000000000001</v>
+      </c>
+      <c r="V87" s="4">
+        <v>3755</v>
+      </c>
+      <c r="W87" t="s">
+        <v>130</v>
+      </c>
+      <c r="X87" s="4"/>
+    </row>
+    <row r="88" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A88" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I88" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J88" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K88" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L88" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M88" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N88" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O88" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="P88" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q88" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R88" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="S88" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="T88" s="4">
+        <v>98.38</v>
+      </c>
+      <c r="U88" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="V88" s="4">
+        <v>4865</v>
+      </c>
+      <c r="W88" t="s">
+        <v>131</v>
+      </c>
+      <c r="X88" s="4"/>
+    </row>
+    <row r="89" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A89" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I89" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J89" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K89" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L89" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M89" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N89" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O89" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="P89" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q89" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R89" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="S89" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="T89" s="4">
+        <v>3.8</v>
+      </c>
+      <c r="U89" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="V89" t="s">
+        <v>46</v>
+      </c>
+      <c r="W89" t="s">
+        <v>132</v>
+      </c>
+      <c r="X89" s="4"/>
+    </row>
+    <row r="90" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A90" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I90" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J90" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K90" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L90" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M90" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N90" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O90" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="P90" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q90" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R90" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="S90" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="T90" s="4">
+        <v>4.04</v>
+      </c>
+      <c r="U90" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="V90" t="s">
+        <v>46</v>
+      </c>
+      <c r="W90" t="s">
+        <v>133</v>
+      </c>
+      <c r="X90" s="4"/>
+    </row>
+    <row r="91" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A91" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I91" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J91" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K91" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L91" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M91" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N91" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O91" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="P91" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q91" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R91" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="S91" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="T91" s="4">
+        <v>5.7</v>
+      </c>
+      <c r="U91" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="V91" t="s">
+        <v>46</v>
+      </c>
+      <c r="W91" t="s">
+        <v>134</v>
+      </c>
+      <c r="X91" s="4"/>
+    </row>
+    <row r="92" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A92" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I92" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J92" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K92" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L92" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M92" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N92" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O92" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="P92" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q92" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R92" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="S92" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="T92" s="4">
+        <v>5.92</v>
+      </c>
+      <c r="U92" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="V92" t="s">
+        <v>46</v>
+      </c>
+      <c r="W92" t="s">
+        <v>135</v>
+      </c>
+      <c r="X92" s="4"/>
+    </row>
+    <row r="93" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A93" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I93" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J93" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K93" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L93" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M93" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N93" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O93" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="P93" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q93" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R93" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="S93" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="T93" s="4">
+        <v>6.33</v>
+      </c>
+      <c r="U93" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="V93" t="s">
+        <v>46</v>
+      </c>
+      <c r="W93" t="s">
+        <v>136</v>
+      </c>
+      <c r="X93" s="4"/>
+    </row>
+    <row r="94" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A94" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G94" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I94" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J94" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K94" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L94" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M94" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N94" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O94" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="P94" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q94" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R94" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="S94" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="T94" s="4">
+        <v>6.2</v>
+      </c>
+      <c r="U94" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="V94" t="s">
+        <v>46</v>
+      </c>
+      <c r="W94" t="s">
+        <v>137</v>
+      </c>
+      <c r="X94" s="4"/>
+    </row>
+    <row r="95" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A95" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I95" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J95" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K95" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L95" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M95" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N95" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O95" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="P95" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q95" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R95" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="S95" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="T95" s="4">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="U95" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="V95" t="s">
+        <v>46</v>
+      </c>
+      <c r="W95" t="s">
+        <v>138</v>
+      </c>
+      <c r="X95" s="4"/>
+    </row>
+    <row r="96" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A96" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G96" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I96" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J96" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K96" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L96" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M96" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N96" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O96" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="P96" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q96" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R96" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="S96" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="T96" s="4">
+        <v>48.18</v>
+      </c>
+      <c r="U96" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="V96" t="s">
+        <v>46</v>
+      </c>
+      <c r="W96" t="s">
+        <v>139</v>
+      </c>
+      <c r="X96" s="4"/>
+    </row>
+    <row r="97" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A97" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G97" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I97" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J97" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K97" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L97" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M97" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N97" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O97" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="P97" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q97" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R97" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="S97" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="T97" s="4">
+        <v>46.06</v>
+      </c>
+      <c r="U97" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="V97" t="s">
+        <v>46</v>
+      </c>
+      <c r="W97" t="s">
+        <v>140</v>
+      </c>
+      <c r="X97" s="4"/>
+    </row>
+    <row r="98" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A98" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F98" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G98" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I98" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J98" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K98" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L98" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M98" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N98" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O98" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="P98" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q98" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R98" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="S98" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="T98" s="4">
+        <v>52.95</v>
+      </c>
+      <c r="U98" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="V98" t="s">
+        <v>46</v>
+      </c>
+      <c r="W98" t="s">
+        <v>141</v>
+      </c>
+      <c r="X98" s="4"/>
+    </row>
+    <row r="99" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A99" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F99" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G99" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I99" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J99" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K99" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L99" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M99" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N99" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O99" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="P99" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q99" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R99" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="S99" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="T99" s="4">
+        <v>50.61</v>
+      </c>
+      <c r="U99" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="V99" t="s">
+        <v>46</v>
+      </c>
+      <c r="W99" t="s">
+        <v>142</v>
+      </c>
+      <c r="X99" s="4"/>
+    </row>
+    <row r="100" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A100" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F100" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G100" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I100" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J100" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K100" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L100" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M100" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N100" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O100" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="P100" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q100" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R100" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="S100" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="T100" s="4">
+        <v>49.52</v>
+      </c>
+      <c r="U100" s="4">
+        <v>0.32</v>
+      </c>
+      <c r="V100" s="4">
+        <v>3630</v>
+      </c>
+      <c r="W100" t="s">
+        <v>143</v>
+      </c>
+      <c r="X100" s="4"/>
+    </row>
+    <row r="101" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A101" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F101" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G101" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I101" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J101" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K101" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L101" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M101" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N101" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O101" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="P101" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q101" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R101" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="S101" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="T101" s="4">
+        <v>38.56</v>
+      </c>
+      <c r="U101" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="V101" s="4">
+        <v>3470</v>
+      </c>
+      <c r="W101" t="s">
+        <v>144</v>
+      </c>
+      <c r="X101" s="4"/>
+    </row>
+    <row r="102" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A102" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F102" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G102" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I102" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J102" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K102" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L102" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M102" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N102" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O102" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="P102" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q102" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R102" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="S102" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="T102" s="4">
+        <v>28.83</v>
+      </c>
+      <c r="U102" s="4">
+        <v>0.104</v>
+      </c>
+      <c r="V102" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="W102" t="s">
+        <v>145</v>
+      </c>
+      <c r="X102" s="4"/>
+    </row>
+    <row r="103" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A103" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G103" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H103" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I103" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J103" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K103" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L103" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M103" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N103" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O103" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="P103" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q103" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R103" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="S103" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="T103" s="4">
+        <v>43.73</v>
+      </c>
+      <c r="U103" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="V103" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="W103" t="s">
+        <v>146</v>
+      </c>
+      <c r="X103" s="4"/>
+    </row>
+    <row r="104" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A104" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F104" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G104" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H104" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I104" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J104" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K104" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L104" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M104" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N104" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O104" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="P104" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q104" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R104" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="S104" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="T104" s="4">
+        <v>45.57</v>
+      </c>
+      <c r="U104" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="V104" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="W104" t="s">
+        <v>147</v>
+      </c>
+      <c r="X104" s="4"/>
+    </row>
+    <row r="105" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A105" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G105" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H105" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I105" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J105" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K105" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L105" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M105" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N105" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O105" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="P105" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q105" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R105" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="S105" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="T105" s="4">
+        <v>47.08</v>
+      </c>
+      <c r="U105" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="V105" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="W105" t="s">
+        <v>148</v>
+      </c>
+      <c r="X105" s="4"/>
+    </row>
+    <row r="106" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A106" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F106" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G106" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H106" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I106" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J106" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K106" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L106" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M106" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N106" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O106" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="P106" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q106" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R106" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="S106" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="T106" s="4">
+        <v>53.4</v>
+      </c>
+      <c r="U106" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="V106" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="W106" t="s">
+        <v>149</v>
+      </c>
+      <c r="X106" s="4"/>
+    </row>
+    <row r="107" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A107" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F107" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G107" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H107" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I107" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J107" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K107" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L107" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M107" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N107" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O107" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="P107" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q107" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R107" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="S107" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="T107" s="4">
+        <v>45.76</v>
+      </c>
+      <c r="U107" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="V107" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="W107" t="s">
+        <v>150</v>
+      </c>
+      <c r="X107" s="4"/>
+    </row>
+    <row r="108" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A108" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F108" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G108" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H108" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I108" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J108" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K108" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L108" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M108" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N108" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O108" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="P108" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q108" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R108" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="S108" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="T108" s="4">
+        <v>46.79</v>
+      </c>
+      <c r="U108" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="V108" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="W108" t="s">
+        <v>151</v>
+      </c>
+      <c r="X108" s="4"/>
+    </row>
+    <row r="109" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A109" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G109" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H109" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I109" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J109" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K109" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L109" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M109" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N109" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O109" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="P109" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q109" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R109" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="S109" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="T109" s="4">
+        <v>46.79</v>
+      </c>
+      <c r="U109" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="V109" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="W109" t="s">
+        <v>152</v>
+      </c>
+      <c r="X109" s="4"/>
+    </row>
+    <row r="110" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A110" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F110" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G110" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H110" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I110" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J110" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K110" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L110" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M110" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N110" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O110" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="P110" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q110" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R110" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="S110" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="T110" s="4">
+        <v>39.69</v>
+      </c>
+      <c r="U110" s="4">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="V110" s="4">
+        <v>2260</v>
+      </c>
+      <c r="W110" t="s">
+        <v>153</v>
+      </c>
+      <c r="X110" s="4"/>
+    </row>
+    <row r="111" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A111" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E111" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G111" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H111" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I111" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J111" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K111" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L111" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M111" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N111" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O111" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="P111" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q111" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R111" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="S111" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="T111" s="4">
+        <v>43.4</v>
+      </c>
+      <c r="U111" s="4">
+        <v>0.253</v>
+      </c>
+      <c r="V111" s="4">
+        <v>3590</v>
+      </c>
+      <c r="W111" t="s">
+        <v>154</v>
+      </c>
+      <c r="X111" s="4"/>
+    </row>
+    <row r="112" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A112" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E112" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F112" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G112" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H112" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I112" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J112" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K112" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L112" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M112" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N112" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O112" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="P112" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q112" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R112" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="S112" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="T112" s="4">
+        <v>62.04</v>
+      </c>
+      <c r="U112" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="V112" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="W112" t="s">
+        <v>155</v>
+      </c>
+      <c r="X112" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/uv_fluxes.xlsx
+++ b/uv_fluxes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katiemel/Desktop/NASA_2018/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{173F670D-4E64-7A4C-99DD-6456939441F0}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7566CE48-5BBE-E84B-9E78-F1450A8A6052}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="460" windowWidth="25440" windowHeight="15000" xr2:uid="{942B6D15-DAF8-BF42-97C8-ECF2BB5E6A39}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15000" xr2:uid="{942B6D15-DAF8-BF42-97C8-ECF2BB5E6A39}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1755" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1642" uniqueCount="156">
   <si>
     <t>SiIII_flux</t>
   </si>
@@ -499,7 +499,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -559,6 +559,25 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFC00000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF9900"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -580,7 +599,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -594,6 +613,9 @@
     <xf numFmtId="11" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -910,8 +932,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF0202CB-48C7-494E-B0A3-04A5E53E516A}">
   <dimension ref="A1:X112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="X98" sqref="X98"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O81" sqref="O81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1638,17 +1661,17 @@
       <c r="L13" t="s">
         <v>46</v>
       </c>
-      <c r="M13" t="s">
-        <v>46</v>
-      </c>
-      <c r="N13" t="s">
-        <v>46</v>
-      </c>
-      <c r="O13" t="s">
-        <v>46</v>
-      </c>
-      <c r="P13" t="s">
-        <v>46</v>
+      <c r="M13" s="15">
+        <v>4.1800000000000001E-15</v>
+      </c>
+      <c r="N13" s="15">
+        <v>1.4799999999999999E-16</v>
+      </c>
+      <c r="O13" s="8">
+        <v>1.2199999999999999E-14</v>
+      </c>
+      <c r="P13" s="8">
+        <v>2.9999999999999999E-16</v>
       </c>
       <c r="Q13" t="s">
         <v>46</v>
@@ -1710,17 +1733,17 @@
       <c r="L14" t="s">
         <v>46</v>
       </c>
-      <c r="M14" t="s">
-        <v>46</v>
-      </c>
-      <c r="N14" t="s">
-        <v>46</v>
-      </c>
-      <c r="O14" t="s">
-        <v>46</v>
-      </c>
-      <c r="P14" t="s">
-        <v>46</v>
+      <c r="M14" s="15">
+        <v>8.3E-14</v>
+      </c>
+      <c r="N14" s="15">
+        <v>1.15E-15</v>
+      </c>
+      <c r="O14" s="7">
+        <v>9.1399999999999994E-14</v>
+      </c>
+      <c r="P14" s="7">
+        <v>1.0000000000000001E-15</v>
       </c>
       <c r="Q14" t="s">
         <v>46</v>
@@ -1782,17 +1805,17 @@
       <c r="L15" t="s">
         <v>46</v>
       </c>
-      <c r="M15" t="s">
-        <v>46</v>
-      </c>
-      <c r="N15" t="s">
-        <v>46</v>
-      </c>
-      <c r="O15" t="s">
-        <v>46</v>
-      </c>
-      <c r="P15" t="s">
-        <v>46</v>
+      <c r="M15" s="15">
+        <v>1.2300000000000001E-15</v>
+      </c>
+      <c r="N15" s="15">
+        <v>9.6899999999999994E-17</v>
+      </c>
+      <c r="O15" s="7">
+        <v>4.4999999999999998E-15</v>
+      </c>
+      <c r="P15" s="1">
+        <v>2E-16</v>
       </c>
       <c r="Q15" t="s">
         <v>46</v>
@@ -1854,17 +1877,17 @@
       <c r="L16" t="s">
         <v>46</v>
       </c>
-      <c r="M16" t="s">
-        <v>46</v>
-      </c>
-      <c r="N16" t="s">
-        <v>46</v>
-      </c>
-      <c r="O16" t="s">
-        <v>46</v>
-      </c>
-      <c r="P16" t="s">
-        <v>46</v>
+      <c r="M16" s="15">
+        <v>5.58E-15</v>
+      </c>
+      <c r="N16" s="15">
+        <v>2.1199999999999999E-16</v>
+      </c>
+      <c r="O16" s="7">
+        <v>1.1799999999999999E-14</v>
+      </c>
+      <c r="P16" s="1">
+        <v>2.9999999999999999E-16</v>
       </c>
       <c r="Q16" t="s">
         <v>46</v>
@@ -2106,11 +2129,11 @@
       <c r="X19" s="4"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>46</v>
+      <c r="A20" s="15">
+        <v>5.1700000000000002E-16</v>
+      </c>
+      <c r="B20" s="15">
+        <v>4.2299999999999998E-17</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>46</v>
@@ -2124,11 +2147,11 @@
       <c r="F20" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>46</v>
+      <c r="G20" s="15">
+        <v>8.5499999999999999E-16</v>
+      </c>
+      <c r="H20" s="15">
+        <v>8.1700000000000001E-17</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>46</v>
@@ -2136,29 +2159,29 @@
       <c r="J20" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q20" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="R20" s="3" t="s">
-        <v>46</v>
+      <c r="K20" s="15">
+        <v>5.1800000000000004E-16</v>
+      </c>
+      <c r="L20" s="15">
+        <v>6.1800000000000001E-17</v>
+      </c>
+      <c r="M20" s="15">
+        <v>2.0200000000000001E-15</v>
+      </c>
+      <c r="N20" s="15">
+        <v>2.4499999999999999E-16</v>
+      </c>
+      <c r="O20" s="15">
+        <v>2.7300000000000002E-15</v>
+      </c>
+      <c r="P20" s="15">
+        <v>2.1799999999999999E-16</v>
+      </c>
+      <c r="Q20" s="15">
+        <v>5.1499999999999999E-16</v>
+      </c>
+      <c r="R20" s="15">
+        <v>3.8600000000000001E-17</v>
       </c>
       <c r="S20" s="3" t="s">
         <v>46</v>
@@ -2682,11 +2705,11 @@
       <c r="X27" s="4"/>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>46</v>
+      <c r="A28" s="15">
+        <v>3.3200000000000002E-16</v>
+      </c>
+      <c r="B28" s="15">
+        <v>3.39E-17</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>46</v>
@@ -2700,11 +2723,11 @@
       <c r="F28" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G28" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>46</v>
+      <c r="G28" s="15">
+        <v>7.0699999999999995E-16</v>
+      </c>
+      <c r="H28" s="15">
+        <v>7.2499999999999995E-17</v>
       </c>
       <c r="I28" s="4" t="s">
         <v>46</v>
@@ -2712,29 +2735,29 @@
       <c r="J28" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="K28" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="L28" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="M28" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="N28" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="O28" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="P28" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q28" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="R28" s="4" t="s">
-        <v>46</v>
+      <c r="K28" s="15">
+        <v>3.9299999999999998E-16</v>
+      </c>
+      <c r="L28" s="15">
+        <v>6.3899999999999998E-14</v>
+      </c>
+      <c r="M28" s="15">
+        <v>1.75E-15</v>
+      </c>
+      <c r="N28" s="15">
+        <v>9.1E-17</v>
+      </c>
+      <c r="O28" s="15">
+        <v>2.1400000000000001E-15</v>
+      </c>
+      <c r="P28" s="15">
+        <v>7.8200000000000006E-17</v>
+      </c>
+      <c r="Q28" s="15">
+        <v>6.8999999999999997E-16</v>
+      </c>
+      <c r="R28" s="15">
+        <v>4.4E-17</v>
       </c>
       <c r="S28" t="s">
         <v>46</v>
@@ -2898,11 +2921,11 @@
       <c r="X30" s="4"/>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>46</v>
+      <c r="A31" s="15">
+        <v>1.41E-15</v>
+      </c>
+      <c r="B31" s="15">
+        <v>4.6600000000000002E-17</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>46</v>
@@ -2916,41 +2939,41 @@
       <c r="F31" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G31" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J31" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K31" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="L31" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="M31" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="N31" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="O31" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="P31" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q31" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="R31" s="3" t="s">
-        <v>46</v>
+      <c r="G31" s="15">
+        <v>2.9499999999999998E-15</v>
+      </c>
+      <c r="H31" s="15">
+        <v>9.1E-17</v>
+      </c>
+      <c r="I31" s="15">
+        <v>5.1799999999999998E-14</v>
+      </c>
+      <c r="J31" s="15">
+        <v>4.25E-15</v>
+      </c>
+      <c r="K31" s="15">
+        <v>1.2900000000000001E-15</v>
+      </c>
+      <c r="L31" s="15">
+        <v>6.3100000000000005E-17</v>
+      </c>
+      <c r="M31" s="15">
+        <v>3.47E-15</v>
+      </c>
+      <c r="N31" s="15">
+        <v>1.07E-16</v>
+      </c>
+      <c r="O31" s="15">
+        <v>5.6000000000000003E-15</v>
+      </c>
+      <c r="P31" s="15">
+        <v>1.4300000000000001E-16</v>
+      </c>
+      <c r="Q31" s="15">
+        <v>1.8599999999999999E-15</v>
+      </c>
+      <c r="R31" s="15">
+        <v>4.2700000000000002E-17</v>
       </c>
       <c r="S31" t="s">
         <v>46</v>
@@ -2970,11 +2993,11 @@
       <c r="X31" s="4"/>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>46</v>
+      <c r="A32" s="15">
+        <v>6.36E-15</v>
+      </c>
+      <c r="B32" s="15">
+        <v>1.97E-16</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>46</v>
@@ -2988,11 +3011,11 @@
       <c r="F32" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>46</v>
+      <c r="G32" s="15">
+        <v>9.5600000000000007E-15</v>
+      </c>
+      <c r="H32" s="15">
+        <v>3.6800000000000001E-16</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>46</v>
@@ -3000,29 +3023,29 @@
       <c r="J32" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="O32" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="P32" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q32" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="R32" s="3" t="s">
-        <v>46</v>
+      <c r="K32" s="15">
+        <v>7.5699999999999996E-15</v>
+      </c>
+      <c r="L32" s="15">
+        <v>3.1000000000000001E-16</v>
+      </c>
+      <c r="M32" s="15">
+        <v>2.19E-14</v>
+      </c>
+      <c r="N32" s="15">
+        <v>8.0800000000000001E-16</v>
+      </c>
+      <c r="O32" s="15">
+        <v>3.6400000000000001E-14</v>
+      </c>
+      <c r="P32" s="15">
+        <v>1.02E-15</v>
+      </c>
+      <c r="Q32" s="15">
+        <v>5.0399999999999999E-15</v>
+      </c>
+      <c r="R32" s="15">
+        <v>1.47E-16</v>
       </c>
       <c r="S32" t="s">
         <v>46</v>
@@ -5130,11 +5153,11 @@
       <c r="X61" s="4"/>
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>46</v>
-      </c>
-      <c r="B62" t="s">
-        <v>46</v>
+      <c r="A62" s="15">
+        <v>3.2699999999999999E-16</v>
+      </c>
+      <c r="B62" s="15">
+        <v>1.0600000000000001E-17</v>
       </c>
       <c r="C62" t="s">
         <v>46</v>
@@ -5148,11 +5171,11 @@
       <c r="F62" t="s">
         <v>46</v>
       </c>
-      <c r="G62" t="s">
-        <v>46</v>
-      </c>
-      <c r="H62" t="s">
-        <v>46</v>
+      <c r="G62" s="15">
+        <v>6.4600000000000004E-16</v>
+      </c>
+      <c r="H62" s="15">
+        <v>2.14E-17</v>
       </c>
       <c r="I62" t="s">
         <v>46</v>
@@ -5160,11 +5183,11 @@
       <c r="J62" t="s">
         <v>46</v>
       </c>
-      <c r="K62" t="s">
-        <v>46</v>
-      </c>
-      <c r="L62" t="s">
-        <v>46</v>
+      <c r="K62" s="15">
+        <v>3.58E-16</v>
+      </c>
+      <c r="L62" s="15">
+        <v>1.65E-17</v>
       </c>
       <c r="M62" t="s">
         <v>46</v>
@@ -5178,11 +5201,11 @@
       <c r="P62" t="s">
         <v>46</v>
       </c>
-      <c r="Q62" t="s">
-        <v>46</v>
-      </c>
-      <c r="R62" t="s">
-        <v>46</v>
+      <c r="Q62" s="15">
+        <v>6.5999999999999998E-16</v>
+      </c>
+      <c r="R62" s="15">
+        <v>1.31E-17</v>
       </c>
       <c r="S62" t="s">
         <v>46</v>
@@ -5343,11 +5366,11 @@
       </c>
     </row>
     <row r="65" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>46</v>
-      </c>
-      <c r="B65" t="s">
-        <v>46</v>
+      <c r="A65" s="8">
+        <v>7.0000000000000001E-15</v>
+      </c>
+      <c r="B65" s="8">
+        <v>1.6E-15</v>
       </c>
       <c r="C65" t="s">
         <v>46</v>
@@ -5361,11 +5384,11 @@
       <c r="F65" t="s">
         <v>46</v>
       </c>
-      <c r="G65" t="s">
-        <v>46</v>
-      </c>
-      <c r="H65" t="s">
-        <v>46</v>
+      <c r="G65" s="8">
+        <v>1.66E-14</v>
+      </c>
+      <c r="H65" s="8">
+        <v>2.5E-15</v>
       </c>
       <c r="I65" t="s">
         <v>46</v>
@@ -5373,11 +5396,11 @@
       <c r="J65" t="s">
         <v>46</v>
       </c>
-      <c r="K65" t="s">
-        <v>46</v>
-      </c>
-      <c r="L65" t="s">
-        <v>46</v>
+      <c r="K65" s="8">
+        <v>2.6399999999999999E-15</v>
+      </c>
+      <c r="L65" s="8">
+        <v>7.3999999999999999E-16</v>
       </c>
       <c r="M65" t="s">
         <v>46</v>
@@ -5415,11 +5438,11 @@
       <c r="X65" s="4"/>
     </row>
     <row r="66" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>46</v>
-      </c>
-      <c r="B66" t="s">
-        <v>46</v>
+      <c r="A66" s="8">
+        <v>5.9999999999999997E-15</v>
+      </c>
+      <c r="B66" s="8">
+        <v>1.3E-15</v>
       </c>
       <c r="C66" t="s">
         <v>46</v>
@@ -5433,11 +5456,11 @@
       <c r="F66" t="s">
         <v>46</v>
       </c>
-      <c r="G66" t="s">
-        <v>46</v>
-      </c>
-      <c r="H66" t="s">
-        <v>46</v>
+      <c r="G66" s="8">
+        <v>1.58E-14</v>
+      </c>
+      <c r="H66" s="8">
+        <v>2.1999999999999999E-15</v>
       </c>
       <c r="I66" t="s">
         <v>46</v>
@@ -5445,11 +5468,11 @@
       <c r="J66" t="s">
         <v>46</v>
       </c>
-      <c r="K66" t="s">
-        <v>46</v>
-      </c>
-      <c r="L66" t="s">
-        <v>46</v>
+      <c r="K66" s="8">
+        <v>2.67E-15</v>
+      </c>
+      <c r="L66" s="8">
+        <v>6.7000000000000004E-16</v>
       </c>
       <c r="M66" t="s">
         <v>46</v>
@@ -5487,11 +5510,11 @@
       <c r="X66" s="4"/>
     </row>
     <row r="67" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>46</v>
-      </c>
-      <c r="B67" t="s">
-        <v>46</v>
+      <c r="A67" s="8">
+        <v>1.42E-14</v>
+      </c>
+      <c r="B67" s="8">
+        <v>2.6E-15</v>
       </c>
       <c r="C67" t="s">
         <v>46</v>
@@ -5505,11 +5528,11 @@
       <c r="F67" t="s">
         <v>46</v>
       </c>
-      <c r="G67" t="s">
-        <v>46</v>
-      </c>
-      <c r="H67" t="s">
-        <v>46</v>
+      <c r="G67" s="8">
+        <v>3.02E-14</v>
+      </c>
+      <c r="H67" s="8">
+        <v>3.8000000000000002E-15</v>
       </c>
       <c r="I67" t="s">
         <v>46</v>
@@ -5517,11 +5540,11 @@
       <c r="J67" t="s">
         <v>46</v>
       </c>
-      <c r="K67" t="s">
-        <v>46</v>
-      </c>
-      <c r="L67" t="s">
-        <v>46</v>
+      <c r="K67" s="8">
+        <v>5.6000000000000003E-15</v>
+      </c>
+      <c r="L67" s="8">
+        <v>1.2E-15</v>
       </c>
       <c r="M67" t="s">
         <v>46</v>
@@ -5550,10 +5573,10 @@
       <c r="U67" s="4">
         <v>0.59</v>
       </c>
-      <c r="V67" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="W67" t="s">
+      <c r="V67" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="W67" s="14" t="s">
         <v>110</v>
       </c>
       <c r="X67" s="4"/>
@@ -5577,11 +5600,11 @@
       <c r="F68" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G68" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H68" s="4" t="s">
-        <v>46</v>
+      <c r="G68" s="7">
+        <v>2.7000000000000001E-17</v>
+      </c>
+      <c r="H68" s="7">
+        <v>2.2E-17</v>
       </c>
       <c r="I68" s="4" t="s">
         <v>46</v>
@@ -5589,11 +5612,11 @@
       <c r="J68" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="K68" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="L68" s="4" t="s">
-        <v>46</v>
+      <c r="K68" s="7">
+        <v>1.3E-17</v>
+      </c>
+      <c r="L68" s="7">
+        <v>1.5E-17</v>
       </c>
       <c r="M68" s="4" t="s">
         <v>46</v>
@@ -5601,11 +5624,11 @@
       <c r="N68" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="O68" s="4" t="s">
-        <v>46</v>
+      <c r="O68" s="7">
+        <v>7.1E-16</v>
       </c>
       <c r="P68" s="7">
-        <v>7.1E-16</v>
+        <v>6.0000000000000001E-17</v>
       </c>
       <c r="Q68" s="4" t="s">
         <v>46</v>
@@ -5622,10 +5645,10 @@
       <c r="U68" s="4">
         <v>0.11</v>
       </c>
-      <c r="V68" t="s">
-        <v>46</v>
-      </c>
-      <c r="W68" t="s">
+      <c r="V68" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="W68" s="14" t="s">
         <v>111</v>
       </c>
       <c r="X68" s="4"/>
@@ -5649,11 +5672,11 @@
       <c r="F69" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G69" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H69" s="4" t="s">
-        <v>46</v>
+      <c r="G69" s="7">
+        <v>6.9E-17</v>
+      </c>
+      <c r="H69" s="7">
+        <v>4.0000000000000003E-17</v>
       </c>
       <c r="I69" s="4" t="s">
         <v>46</v>
@@ -5661,11 +5684,11 @@
       <c r="J69" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="K69" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="L69" s="4" t="s">
-        <v>46</v>
+      <c r="K69" s="7">
+        <v>1.6000000000000001E-17</v>
+      </c>
+      <c r="L69" s="7">
+        <v>2.3000000000000001E-17</v>
       </c>
       <c r="M69" s="4" t="s">
         <v>46</v>
@@ -5676,7 +5699,9 @@
       <c r="O69" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="P69" s="4"/>
+      <c r="P69" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="Q69" s="4" t="s">
         <v>46</v>
       </c>
@@ -5692,38 +5717,38 @@
       <c r="U69" s="4">
         <v>0.12</v>
       </c>
-      <c r="V69" t="s">
-        <v>46</v>
-      </c>
-      <c r="W69" t="s">
+      <c r="V69" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="W69" s="14" t="s">
         <v>112</v>
       </c>
       <c r="X69" s="4"/>
     </row>
     <row r="70" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A70" s="3">
-        <v>0</v>
-      </c>
-      <c r="B70" s="3">
-        <v>0</v>
-      </c>
-      <c r="C70" s="3">
-        <v>0</v>
-      </c>
-      <c r="D70" s="3">
-        <v>0</v>
-      </c>
-      <c r="E70" s="3">
-        <v>0</v>
-      </c>
-      <c r="F70" s="3">
-        <v>0</v>
-      </c>
-      <c r="G70" s="3">
-        <v>0</v>
-      </c>
-      <c r="H70" s="3">
-        <v>0</v>
+      <c r="A70" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="I70" s="1">
         <v>1.1E-12</v>
@@ -5731,32 +5756,32 @@
       <c r="J70" s="1">
         <v>1.42E-15</v>
       </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
-      <c r="L70" s="3">
-        <v>0</v>
-      </c>
-      <c r="M70" s="3">
-        <v>0</v>
-      </c>
-      <c r="N70" s="3">
-        <v>0</v>
-      </c>
-      <c r="O70" s="3">
-        <v>0</v>
-      </c>
-      <c r="P70" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q70" s="3">
-        <v>0</v>
-      </c>
-      <c r="R70" s="3">
-        <v>0</v>
-      </c>
-      <c r="S70" s="3">
-        <v>0</v>
+      <c r="K70" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L70" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="M70" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N70" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="O70" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="P70" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q70" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="R70" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="S70" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="T70" s="3">
         <v>5.99</v>
@@ -5815,11 +5840,11 @@
       <c r="N71" t="s">
         <v>46</v>
       </c>
-      <c r="O71" t="s">
-        <v>46</v>
+      <c r="O71" s="8">
+        <v>2.8000000000000001E-15</v>
       </c>
       <c r="P71" s="7">
-        <v>2.8000000000000001E-15</v>
+        <v>9.9999999999999998E-17</v>
       </c>
       <c r="Q71" t="s">
         <v>46</v>
@@ -5887,11 +5912,11 @@
       <c r="N72" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="O72" s="4" t="s">
-        <v>46</v>
+      <c r="O72" s="7">
+        <v>1.4000000000000001E-15</v>
       </c>
       <c r="P72" s="7">
-        <v>1.4000000000000001E-15</v>
+        <v>9.9999999999999998E-17</v>
       </c>
       <c r="Q72" s="4" t="s">
         <v>46</v>
@@ -5959,11 +5984,11 @@
       <c r="N73" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="O73" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="P73" s="4" t="s">
-        <v>46</v>
+      <c r="O73" s="15">
+        <v>4.7199999999999998E-16</v>
+      </c>
+      <c r="P73" s="15">
+        <v>4.4099999999999998E-17</v>
       </c>
       <c r="Q73" s="4" t="s">
         <v>46</v>
@@ -6058,11 +6083,11 @@
       <c r="X74" s="4"/>
     </row>
     <row r="75" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A75" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>46</v>
+      <c r="A75" s="15">
+        <v>6.7400000000000001E-16</v>
+      </c>
+      <c r="B75" s="15">
+        <v>2.8299999999999999E-17</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>46</v>
@@ -6070,17 +6095,17 @@
       <c r="D75" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E75" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F75" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G75" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H75" s="4" t="s">
-        <v>46</v>
+      <c r="E75" s="15">
+        <v>8.9100000000000008E-16</v>
+      </c>
+      <c r="F75" s="15">
+        <v>6.5599999999999996E-17</v>
+      </c>
+      <c r="G75" s="15">
+        <v>7.4800000000000001E-15</v>
+      </c>
+      <c r="H75" s="15">
+        <v>1.38E-16</v>
       </c>
       <c r="I75" s="4" t="s">
         <v>46</v>
@@ -6106,11 +6131,11 @@
       <c r="P75" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="Q75" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="R75" s="4" t="s">
-        <v>46</v>
+      <c r="Q75" s="15">
+        <v>5.4799999999999999E-15</v>
+      </c>
+      <c r="R75" s="15">
+        <v>7.1500000000000003E-17</v>
       </c>
       <c r="S75" s="4" t="s">
         <v>46</v>
@@ -6202,11 +6227,11 @@
       <c r="X76" s="4"/>
     </row>
     <row r="77" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A77" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>46</v>
+      <c r="A77" s="15">
+        <v>1.08E-15</v>
+      </c>
+      <c r="B77" s="15">
+        <v>3.0200000000000003E-17</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>46</v>
@@ -6214,17 +6239,17 @@
       <c r="D77" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E77" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F77" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G77" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H77" s="4" t="s">
-        <v>46</v>
+      <c r="E77" s="15">
+        <v>6.8399999999999997E-16</v>
+      </c>
+      <c r="F77" s="15">
+        <v>4.31E-17</v>
+      </c>
+      <c r="G77" s="15">
+        <v>4.3999999999999997E-15</v>
+      </c>
+      <c r="H77" s="15">
+        <v>7.2799999999999995E-17</v>
       </c>
       <c r="I77" s="4" t="s">
         <v>46</v>
@@ -6250,11 +6275,11 @@
       <c r="P77" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="Q77" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="R77" s="4" t="s">
-        <v>46</v>
+      <c r="Q77" s="15">
+        <v>2.5899999999999999E-15</v>
+      </c>
+      <c r="R77" s="15">
+        <v>3.4700000000000002E-17</v>
       </c>
       <c r="S77" s="4" t="s">
         <v>46</v>
@@ -6418,11 +6443,11 @@
       <c r="X79" s="4"/>
     </row>
     <row r="80" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A80" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>46</v>
+      <c r="A80" s="15">
+        <v>2.7700000000000001E-14</v>
+      </c>
+      <c r="B80" s="15">
+        <v>4.4600000000000005E-16</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>46</v>
@@ -6430,17 +6455,17 @@
       <c r="D80" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E80" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F80" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G80" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H80" s="4" t="s">
-        <v>46</v>
+      <c r="E80" s="15">
+        <v>3.6899999999999996E-15</v>
+      </c>
+      <c r="F80" s="15">
+        <v>1.56E-16</v>
+      </c>
+      <c r="G80" s="15">
+        <v>2.6999999999999999E-14</v>
+      </c>
+      <c r="H80" s="15">
+        <v>4.9800000000000001E-16</v>
       </c>
       <c r="I80" s="4" t="s">
         <v>46</v>
@@ -6466,11 +6491,11 @@
       <c r="P80" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="Q80" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="R80" s="4" t="s">
-        <v>46</v>
+      <c r="Q80" s="15">
+        <v>2.1399999999999999E-14</v>
+      </c>
+      <c r="R80" s="15">
+        <v>2.02E-16</v>
       </c>
       <c r="S80" s="4" t="s">
         <v>46</v>
@@ -6778,11 +6803,11 @@
       <c r="X84" s="4"/>
     </row>
     <row r="85" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A85" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>46</v>
+      <c r="A85" s="15">
+        <v>1.5699999999999999E-14</v>
+      </c>
+      <c r="B85" s="15">
+        <v>8.8499999999999998E-16</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>46</v>
